--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OD53"/>
+  <dimension ref="A1:OC53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1476,930 +1476,925 @@
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>liferay-portal</t>
-        </is>
-      </c>
-      <c r="HB1" s="1" t="inlineStr">
-        <is>
           <t>jsonschema2pojo</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>light-4j</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>zxing-android-embedded</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>liquibase</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>logback</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>logging-log4j2</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>junit4</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>junit5</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>phpinspectionsea</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>grobid</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>mage</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>manifold</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>materialistic</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>XChart</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>XChange</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>unirest-java</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>teavm</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>android-gif-drawable</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>java</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>maxwell</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>Lawnchair</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>micrometer</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>micronaut-core</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>myexcel</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>libgdx</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>OpenPDF</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>modeldb</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>mongo-java-driver</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>rest.li</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>moquette</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>morphia</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>nacos</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>lwjgl3</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>NetGuard</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>lanterna</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>neo4j-apoc-procedures</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>netbeans</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>mapstruct</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>netty</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>material-components-android</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>gpslogger</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>ngrinder</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>nifi</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>MinecraftForge</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>mockserver</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>mockito</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>nomulus</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>nutz</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>onedev</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>Terasology</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>lombok-intellij-plugin</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>msgpack-java</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>openapi-generator</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>Openfire</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>OpenID-Connect-Java-Spring-Server</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>KISS</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>OpenRefine</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>eureka</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>OsmAnd</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>osmdroid</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>pac4j</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>pentaho-kettle</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>open-keychain</t>
         </is>
       </c>
-      <c r="JM1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>Chronicle-Map</t>
         </is>
       </c>
-      <c r="JN1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>presto</t>
         </is>
       </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>primefaces</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>processing</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>OpenTripPlanner</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>openvidu</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>psi-probe</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>pulsar</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>opengrok</t>
         </is>
       </c>
-      <c r="JV1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>quarkus</t>
         </is>
       </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>oshi</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
+      <c r="JW1" s="1" t="inlineStr">
         <is>
           <t>quarkus-quickstarts</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
         <is>
           <t>querydsl</t>
         </is>
       </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="JY1" s="1" t="inlineStr">
         <is>
           <t>questdb</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
         <is>
           <t>ratpack</t>
         </is>
       </c>
-      <c r="KB1" s="1" t="inlineStr">
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>redisson</t>
         </is>
       </c>
-      <c r="KC1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
         <is>
           <t>keepass2android</t>
         </is>
       </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KC1" s="1" t="inlineStr">
         <is>
           <t>MPAndroidChart</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
+      <c r="KD1" s="1" t="inlineStr">
         <is>
           <t>secor</t>
         </is>
       </c>
-      <c r="KF1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>docx4j</t>
         </is>
       </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>pmd</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
         <is>
           <t>pravega</t>
         </is>
       </c>
-      <c r="KI1" s="1" t="inlineStr">
+      <c r="KH1" s="1" t="inlineStr">
         <is>
           <t>ripme</t>
         </is>
       </c>
-      <c r="KJ1" s="1" t="inlineStr">
+      <c r="KI1" s="1" t="inlineStr">
         <is>
           <t>rstudio</t>
         </is>
       </c>
-      <c r="KK1" s="1" t="inlineStr">
+      <c r="KJ1" s="1" t="inlineStr">
         <is>
           <t>Saturn</t>
         </is>
       </c>
-      <c r="KL1" s="1" t="inlineStr">
+      <c r="KK1" s="1" t="inlineStr">
         <is>
           <t>scouter</t>
         </is>
       </c>
-      <c r="KM1" s="1" t="inlineStr">
+      <c r="KL1" s="1" t="inlineStr">
         <is>
           <t>selenium</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
+      <c r="KM1" s="1" t="inlineStr">
         <is>
           <t>slf4j</t>
         </is>
       </c>
-      <c r="KO1" s="1" t="inlineStr">
+      <c r="KN1" s="1" t="inlineStr">
         <is>
           <t>serve</t>
         </is>
       </c>
-      <c r="KP1" s="1" t="inlineStr">
+      <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>RedReader</t>
         </is>
       </c>
-      <c r="KQ1" s="1" t="inlineStr">
+      <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>servicecomb-java-chassis</t>
         </is>
       </c>
-      <c r="KR1" s="1" t="inlineStr">
+      <c r="KQ1" s="1" t="inlineStr">
         <is>
           <t>servicecomb-pack</t>
         </is>
       </c>
-      <c r="KS1" s="1" t="inlineStr">
+      <c r="KR1" s="1" t="inlineStr">
         <is>
           <t>shardingsphere-elasticjob</t>
         </is>
       </c>
-      <c r="KT1" s="1" t="inlineStr">
+      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>ShedLock</t>
         </is>
       </c>
-      <c r="KU1" s="1" t="inlineStr">
+      <c r="KT1" s="1" t="inlineStr">
         <is>
           <t>shiro</t>
         </is>
       </c>
-      <c r="KV1" s="1" t="inlineStr">
+      <c r="KU1" s="1" t="inlineStr">
         <is>
           <t>siddhi</t>
         </is>
       </c>
-      <c r="KW1" s="1" t="inlineStr">
+      <c r="KV1" s="1" t="inlineStr">
         <is>
           <t>RxJava</t>
         </is>
       </c>
-      <c r="KX1" s="1" t="inlineStr">
+      <c r="KW1" s="1" t="inlineStr">
         <is>
           <t>reactor-core</t>
         </is>
       </c>
-      <c r="KY1" s="1" t="inlineStr">
+      <c r="KX1" s="1" t="inlineStr">
         <is>
           <t>reactor-netty</t>
         </is>
       </c>
-      <c r="KZ1" s="1" t="inlineStr">
+      <c r="KY1" s="1" t="inlineStr">
         <is>
           <t>agrona</t>
         </is>
       </c>
-      <c r="LA1" s="1" t="inlineStr">
+      <c r="KZ1" s="1" t="inlineStr">
         <is>
           <t>simple-binary-encoding</t>
         </is>
       </c>
-      <c r="LB1" s="1" t="inlineStr">
+      <c r="LA1" s="1" t="inlineStr">
         <is>
           <t>aeron</t>
         </is>
       </c>
-      <c r="LC1" s="1" t="inlineStr">
+      <c r="LB1" s="1" t="inlineStr">
         <is>
           <t>Signal-Android</t>
         </is>
       </c>
-      <c r="LD1" s="1" t="inlineStr">
+      <c r="LC1" s="1" t="inlineStr">
         <is>
           <t>skywalking</t>
         </is>
       </c>
-      <c r="LE1" s="1" t="inlineStr">
+      <c r="LD1" s="1" t="inlineStr">
         <is>
           <t>pushy</t>
         </is>
       </c>
-      <c r="LF1" s="1" t="inlineStr">
+      <c r="LE1" s="1" t="inlineStr">
         <is>
           <t>picocli</t>
         </is>
       </c>
-      <c r="LG1" s="1" t="inlineStr">
+      <c r="LF1" s="1" t="inlineStr">
         <is>
           <t>rest-assured</t>
         </is>
       </c>
-      <c r="LH1" s="1" t="inlineStr">
+      <c r="LG1" s="1" t="inlineStr">
         <is>
           <t>smile</t>
         </is>
       </c>
-      <c r="LI1" s="1" t="inlineStr">
+      <c r="LH1" s="1" t="inlineStr">
         <is>
           <t>robolectric</t>
         </is>
       </c>
-      <c r="LJ1" s="1" t="inlineStr">
+      <c r="LI1" s="1" t="inlineStr">
         <is>
           <t>sonarqube</t>
         </is>
       </c>
-      <c r="LK1" s="1" t="inlineStr">
+      <c r="LJ1" s="1" t="inlineStr">
         <is>
           <t>runelite</t>
         </is>
       </c>
-      <c r="LL1" s="1" t="inlineStr">
+      <c r="LK1" s="1" t="inlineStr">
         <is>
           <t>soot</t>
         </is>
       </c>
-      <c r="LM1" s="1" t="inlineStr">
+      <c r="LL1" s="1" t="inlineStr">
         <is>
           <t>mp4parser</t>
         </is>
       </c>
-      <c r="LN1" s="1" t="inlineStr">
+      <c r="LM1" s="1" t="inlineStr">
         <is>
           <t>scribejava</t>
         </is>
       </c>
-      <c r="LO1" s="1" t="inlineStr">
+      <c r="LN1" s="1" t="inlineStr">
         <is>
           <t>selenide</t>
         </is>
       </c>
-      <c r="LP1" s="1" t="inlineStr">
+      <c r="LO1" s="1" t="inlineStr">
         <is>
           <t>spock</t>
         </is>
       </c>
-      <c r="LQ1" s="1" t="inlineStr">
+      <c r="LP1" s="1" t="inlineStr">
         <is>
           <t>spoon</t>
         </is>
       </c>
-      <c r="LR1" s="1" t="inlineStr">
+      <c r="LQ1" s="1" t="inlineStr">
         <is>
           <t>android-maven-plugin</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
+      <c r="LR1" s="1" t="inlineStr">
         <is>
           <t>jadx</t>
         </is>
       </c>
-      <c r="LT1" s="1" t="inlineStr">
+      <c r="LS1" s="1" t="inlineStr">
         <is>
           <t>gh4a</t>
         </is>
       </c>
-      <c r="LU1" s="1" t="inlineStr">
+      <c r="LT1" s="1" t="inlineStr">
         <is>
           <t>spotbugs</t>
         </is>
       </c>
-      <c r="LV1" s="1" t="inlineStr">
+      <c r="LU1" s="1" t="inlineStr">
         <is>
           <t>spring-batch</t>
         </is>
       </c>
-      <c r="LW1" s="1" t="inlineStr">
+      <c r="LV1" s="1" t="inlineStr">
         <is>
           <t>soot</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
+      <c r="LW1" s="1" t="inlineStr">
         <is>
           <t>spring-boot</t>
         </is>
       </c>
-      <c r="LY1" s="1" t="inlineStr">
+      <c r="LX1" s="1" t="inlineStr">
         <is>
           <t>BungeeCord</t>
         </is>
       </c>
-      <c r="LZ1" s="1" t="inlineStr">
+      <c r="LY1" s="1" t="inlineStr">
         <is>
           <t>spring-boot-admin</t>
         </is>
       </c>
-      <c r="MA1" s="1" t="inlineStr">
+      <c r="LZ1" s="1" t="inlineStr">
         <is>
           <t>SpongeAPI</t>
         </is>
       </c>
-      <c r="MB1" s="1" t="inlineStr">
+      <c r="MA1" s="1" t="inlineStr">
         <is>
           <t>spring-cloud-alibaba</t>
         </is>
       </c>
-      <c r="MC1" s="1" t="inlineStr">
+      <c r="MB1" s="1" t="inlineStr">
         <is>
           <t>spring-cloud-config</t>
         </is>
       </c>
-      <c r="MD1" s="1" t="inlineStr">
+      <c r="MC1" s="1" t="inlineStr">
         <is>
           <t>spring-cloud-gateway</t>
         </is>
       </c>
-      <c r="ME1" s="1" t="inlineStr">
+      <c r="MD1" s="1" t="inlineStr">
         <is>
           <t>spring-cloud-sleuth</t>
         </is>
       </c>
-      <c r="MF1" s="1" t="inlineStr">
+      <c r="ME1" s="1" t="inlineStr">
         <is>
           <t>spring-cloud-netflix</t>
         </is>
       </c>
-      <c r="MG1" s="1" t="inlineStr">
+      <c r="MF1" s="1" t="inlineStr">
         <is>
           <t>initializr</t>
         </is>
       </c>
-      <c r="MH1" s="1" t="inlineStr">
+      <c r="MG1" s="1" t="inlineStr">
         <is>
           <t>spring-data-redis</t>
         </is>
       </c>
-      <c r="MI1" s="1" t="inlineStr">
+      <c r="MH1" s="1" t="inlineStr">
         <is>
           <t>spring-integration</t>
         </is>
       </c>
-      <c r="MJ1" s="1" t="inlineStr">
+      <c r="MI1" s="1" t="inlineStr">
         <is>
           <t>spring-kafka</t>
         </is>
       </c>
-      <c r="MK1" s="1" t="inlineStr">
+      <c r="MJ1" s="1" t="inlineStr">
         <is>
           <t>spring-security</t>
         </is>
       </c>
-      <c r="ML1" s="1" t="inlineStr">
+      <c r="MK1" s="1" t="inlineStr">
         <is>
           <t>springdoc-openapi</t>
         </is>
       </c>
-      <c r="MM1" s="1" t="inlineStr">
+      <c r="ML1" s="1" t="inlineStr">
         <is>
           <t>storm</t>
         </is>
       </c>
-      <c r="MN1" s="1" t="inlineStr">
+      <c r="MM1" s="1" t="inlineStr">
         <is>
           <t>strimzi-kafka-operator</t>
         </is>
       </c>
-      <c r="MO1" s="1" t="inlineStr">
+      <c r="MN1" s="1" t="inlineStr">
         <is>
           <t>tablesaw</t>
         </is>
       </c>
-      <c r="MP1" s="1" t="inlineStr">
+      <c r="MO1" s="1" t="inlineStr">
         <is>
           <t>teammates</t>
         </is>
       </c>
-      <c r="MQ1" s="1" t="inlineStr">
+      <c r="MP1" s="1" t="inlineStr">
         <is>
           <t>testcontainers-java</t>
         </is>
       </c>
-      <c r="MR1" s="1" t="inlineStr">
+      <c r="MQ1" s="1" t="inlineStr">
         <is>
           <t>swagger-core</t>
         </is>
       </c>
-      <c r="MS1" s="1" t="inlineStr">
+      <c r="MR1" s="1" t="inlineStr">
         <is>
           <t>syncthing-android</t>
         </is>
       </c>
-      <c r="MT1" s="1" t="inlineStr">
+      <c r="MS1" s="1" t="inlineStr">
         <is>
           <t>synthea</t>
         </is>
       </c>
-      <c r="MU1" s="1" t="inlineStr">
+      <c r="MT1" s="1" t="inlineStr">
         <is>
           <t>AmazeFileManager</t>
         </is>
       </c>
-      <c r="MV1" s="1" t="inlineStr">
+      <c r="MU1" s="1" t="inlineStr">
         <is>
           <t>thingsboard</t>
         </is>
       </c>
-      <c r="MW1" s="1" t="inlineStr">
+      <c r="MV1" s="1" t="inlineStr">
         <is>
           <t>NewPipe</t>
         </is>
       </c>
-      <c r="MX1" s="1" t="inlineStr">
+      <c r="MW1" s="1" t="inlineStr">
         <is>
           <t>tika</t>
         </is>
       </c>
-      <c r="MY1" s="1" t="inlineStr">
+      <c r="MX1" s="1" t="inlineStr">
         <is>
           <t>tinkerpop</t>
         </is>
       </c>
-      <c r="MZ1" s="1" t="inlineStr">
+      <c r="MY1" s="1" t="inlineStr">
         <is>
           <t>tomcat</t>
         </is>
       </c>
-      <c r="NA1" s="1" t="inlineStr">
+      <c r="MZ1" s="1" t="inlineStr">
         <is>
           <t>traccar</t>
         </is>
       </c>
-      <c r="NB1" s="1" t="inlineStr">
+      <c r="NA1" s="1" t="inlineStr">
         <is>
           <t>tlaplus</t>
         </is>
       </c>
-      <c r="NC1" s="1" t="inlineStr">
+      <c r="NB1" s="1" t="inlineStr">
         <is>
           <t>ArchUnit</t>
         </is>
       </c>
-      <c r="ND1" s="1" t="inlineStr">
+      <c r="NC1" s="1" t="inlineStr">
         <is>
           <t>trino</t>
         </is>
       </c>
-      <c r="NE1" s="1" t="inlineStr">
+      <c r="ND1" s="1" t="inlineStr">
         <is>
           <t>undertow</t>
         </is>
       </c>
-      <c r="NF1" s="1" t="inlineStr">
+      <c r="NE1" s="1" t="inlineStr">
         <is>
           <t>java-tron</t>
         </is>
       </c>
-      <c r="NG1" s="1" t="inlineStr">
+      <c r="NF1" s="1" t="inlineStr">
         <is>
           <t>Twitter4J</t>
         </is>
       </c>
-      <c r="NH1" s="1" t="inlineStr">
+      <c r="NG1" s="1" t="inlineStr">
         <is>
           <t>afwall</t>
         </is>
       </c>
-      <c r="NI1" s="1" t="inlineStr">
+      <c r="NH1" s="1" t="inlineStr">
         <is>
           <t>fitnesse</t>
         </is>
       </c>
-      <c r="NJ1" s="1" t="inlineStr">
+      <c r="NI1" s="1" t="inlineStr">
         <is>
           <t>UniversalMediaServer</t>
         </is>
       </c>
-      <c r="NK1" s="1" t="inlineStr">
+      <c r="NJ1" s="1" t="inlineStr">
         <is>
           <t>validator</t>
         </is>
       </c>
-      <c r="NL1" s="1" t="inlineStr">
+      <c r="NK1" s="1" t="inlineStr">
         <is>
           <t>vespa</t>
         </is>
       </c>
-      <c r="NM1" s="1" t="inlineStr">
+      <c r="NL1" s="1" t="inlineStr">
         <is>
           <t>visualvm</t>
         </is>
       </c>
-      <c r="NN1" s="1" t="inlineStr">
+      <c r="NM1" s="1" t="inlineStr">
         <is>
           <t>vavr</t>
         </is>
       </c>
-      <c r="NO1" s="1" t="inlineStr">
+      <c r="NN1" s="1" t="inlineStr">
         <is>
           <t>fastutil</t>
         </is>
       </c>
-      <c r="NP1" s="1" t="inlineStr">
+      <c r="NO1" s="1" t="inlineStr">
         <is>
           <t>webmagic</t>
         </is>
       </c>
-      <c r="NQ1" s="1" t="inlineStr">
+      <c r="NP1" s="1" t="inlineStr">
         <is>
           <t>wildfly</t>
         </is>
       </c>
-      <c r="NR1" s="1" t="inlineStr">
+      <c r="NQ1" s="1" t="inlineStr">
         <is>
           <t>flexmark-java</t>
         </is>
       </c>
-      <c r="NS1" s="1" t="inlineStr">
+      <c r="NR1" s="1" t="inlineStr">
         <is>
           <t>epubcheck</t>
         </is>
       </c>
-      <c r="NT1" s="1" t="inlineStr">
+      <c r="NS1" s="1" t="inlineStr">
         <is>
           <t>xxl-job</t>
         </is>
       </c>
-      <c r="NU1" s="1" t="inlineStr">
+      <c r="NT1" s="1" t="inlineStr">
         <is>
           <t>yacy_search_server</t>
         </is>
       </c>
-      <c r="NV1" s="1" t="inlineStr">
+      <c r="NU1" s="1" t="inlineStr">
         <is>
           <t>Universal-G-Code-Sender</t>
         </is>
       </c>
-      <c r="NW1" s="1" t="inlineStr">
+      <c r="NV1" s="1" t="inlineStr">
         <is>
           <t>YCSB</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
+      <c r="NW1" s="1" t="inlineStr">
         <is>
           <t>zaproxy</t>
         </is>
       </c>
-      <c r="NY1" s="1" t="inlineStr">
+      <c r="NX1" s="1" t="inlineStr">
         <is>
           <t>zeppelin</t>
         </is>
       </c>
-      <c r="NZ1" s="1" t="inlineStr">
+      <c r="NY1" s="1" t="inlineStr">
         <is>
           <t>zipkin</t>
         </is>
       </c>
-      <c r="OA1" s="1" t="inlineStr">
+      <c r="NZ1" s="1" t="inlineStr">
         <is>
           <t>jeromq</t>
         </is>
       </c>
-      <c r="OB1" s="1" t="inlineStr">
+      <c r="OA1" s="1" t="inlineStr">
         <is>
           <t>zxing</t>
         </is>
       </c>
-      <c r="OC1" s="1" t="inlineStr">
+      <c r="OB1" s="1" t="inlineStr">
         <is>
           <t>Relational</t>
         </is>
       </c>
-      <c r="OD1" s="1" t="inlineStr">
+      <c r="OC1" s="1" t="inlineStr">
         <is>
           <t>Non Relational</t>
         </is>
@@ -3587,9 +3582,6 @@
         <v>0</v>
       </c>
       <c r="OC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4223,22 +4215,22 @@
         <v>0</v>
       </c>
       <c r="HA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HD3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE3" t="n">
         <v>1</v>
       </c>
       <c r="HF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG3" t="n">
         <v>0</v>
@@ -4256,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="HL3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN3" t="n">
         <v>0</v>
@@ -4280,19 +4272,19 @@
         <v>0</v>
       </c>
       <c r="HT3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV3" t="n">
         <v>0</v>
       </c>
       <c r="HW3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY3" t="n">
         <v>0</v>
@@ -4301,10 +4293,10 @@
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC3" t="n">
         <v>0</v>
@@ -4316,10 +4308,10 @@
         <v>0</v>
       </c>
       <c r="IF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH3" t="n">
         <v>0</v>
@@ -4328,13 +4320,13 @@
         <v>0</v>
       </c>
       <c r="IJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK3" t="n">
         <v>1</v>
       </c>
       <c r="IL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM3" t="n">
         <v>0</v>
@@ -4346,13 +4338,13 @@
         <v>0</v>
       </c>
       <c r="IP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ3" t="n">
         <v>1</v>
       </c>
       <c r="IR3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS3" t="n">
         <v>0</v>
@@ -4364,13 +4356,13 @@
         <v>0</v>
       </c>
       <c r="IV3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW3" t="n">
         <v>1</v>
       </c>
       <c r="IX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IY3" t="n">
         <v>0</v>
@@ -4379,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="JA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB3" t="n">
         <v>1</v>
@@ -4388,13 +4380,13 @@
         <v>1</v>
       </c>
       <c r="JD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JG3" t="n">
         <v>0</v>
@@ -4406,19 +4398,19 @@
         <v>0</v>
       </c>
       <c r="JJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL3" t="n">
         <v>0</v>
       </c>
       <c r="JM3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO3" t="n">
         <v>0</v>
@@ -4433,31 +4425,31 @@
         <v>0</v>
       </c>
       <c r="JS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW3" t="n">
         <v>0</v>
       </c>
       <c r="JX3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KB3" t="n">
         <v>0</v>
@@ -4484,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK3" t="n">
         <v>1</v>
@@ -4493,7 +4485,7 @@
         <v>1</v>
       </c>
       <c r="KM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN3" t="n">
         <v>0</v>
@@ -4505,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="KQ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KR3" t="n">
         <v>1</v>
@@ -4514,13 +4506,13 @@
         <v>1</v>
       </c>
       <c r="KT3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KW3" t="n">
         <v>0</v>
@@ -4541,10 +4533,10 @@
         <v>0</v>
       </c>
       <c r="LC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LE3" t="n">
         <v>0</v>
@@ -4553,10 +4545,10 @@
         <v>0</v>
       </c>
       <c r="LG3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LI3" t="n">
         <v>0</v>
@@ -4592,19 +4584,19 @@
         <v>0</v>
       </c>
       <c r="LT3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LU3" t="n">
         <v>1</v>
       </c>
       <c r="LV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LW3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY3" t="n">
         <v>0</v>
@@ -4613,19 +4605,19 @@
         <v>0</v>
       </c>
       <c r="MA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MB3" t="n">
         <v>1</v>
       </c>
       <c r="MC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MD3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ME3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MF3" t="n">
         <v>0</v>
@@ -4634,34 +4626,34 @@
         <v>0</v>
       </c>
       <c r="MH3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MI3" t="n">
         <v>1</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MK3" t="n">
         <v>0</v>
       </c>
       <c r="ML3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MM3" t="n">
         <v>1</v>
       </c>
       <c r="MN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MO3" t="n">
         <v>0</v>
       </c>
       <c r="MP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR3" t="n">
         <v>0</v>
@@ -4679,28 +4671,28 @@
         <v>0</v>
       </c>
       <c r="MW3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MZ3" t="n">
         <v>1</v>
       </c>
       <c r="NA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NB3" t="n">
         <v>0</v>
       </c>
       <c r="NC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE3" t="n">
         <v>0</v>
@@ -4736,25 +4728,25 @@
         <v>0</v>
       </c>
       <c r="NP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NR3" t="n">
         <v>0</v>
       </c>
       <c r="NS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NT3" t="n">
         <v>1</v>
       </c>
       <c r="NU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NV3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW3" t="n">
         <v>1</v>
@@ -4766,18 +4758,15 @@
         <v>1</v>
       </c>
       <c r="NZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OA3" t="n">
         <v>0</v>
       </c>
       <c r="OB3" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="OC3" t="n">
-        <v>113</v>
-      </c>
-      <c r="OD3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5411,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="HA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB4" t="n">
         <v>0</v>
@@ -5420,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="HD4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE4" t="n">
         <v>1</v>
@@ -5429,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="HG4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH4" t="n">
         <v>0</v>
@@ -5474,10 +5463,10 @@
         <v>0</v>
       </c>
       <c r="HV4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX4" t="n">
         <v>0</v>
@@ -5519,10 +5508,10 @@
         <v>0</v>
       </c>
       <c r="IK4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM4" t="n">
         <v>0</v>
@@ -5555,10 +5544,10 @@
         <v>0</v>
       </c>
       <c r="IW4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IY4" t="n">
         <v>0</v>
@@ -5567,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="JA4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB4" t="n">
         <v>1</v>
@@ -5576,7 +5565,7 @@
         <v>1</v>
       </c>
       <c r="JD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JE4" t="n">
         <v>0</v>
@@ -5594,10 +5583,10 @@
         <v>0</v>
       </c>
       <c r="JJ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL4" t="n">
         <v>0</v>
@@ -5636,10 +5625,10 @@
         <v>0</v>
       </c>
       <c r="JX4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ4" t="n">
         <v>0</v>
@@ -5675,13 +5664,13 @@
         <v>0</v>
       </c>
       <c r="KK4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KL4" t="n">
         <v>1</v>
       </c>
       <c r="KM4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN4" t="n">
         <v>0</v>
@@ -5693,19 +5682,19 @@
         <v>0</v>
       </c>
       <c r="KQ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KR4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KS4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT4" t="n">
         <v>1</v>
       </c>
       <c r="KU4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KV4" t="n">
         <v>0</v>
@@ -5780,25 +5769,25 @@
         <v>0</v>
       </c>
       <c r="LT4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LU4" t="n">
         <v>1</v>
       </c>
       <c r="LV4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LW4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LZ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MA4" t="n">
         <v>0</v>
@@ -5810,10 +5799,10 @@
         <v>0</v>
       </c>
       <c r="MD4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ME4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MF4" t="n">
         <v>0</v>
@@ -5822,22 +5811,22 @@
         <v>0</v>
       </c>
       <c r="MH4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MI4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MJ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ML4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MM4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MN4" t="n">
         <v>0</v>
@@ -5867,10 +5856,10 @@
         <v>0</v>
       </c>
       <c r="MW4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MX4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY4" t="n">
         <v>0</v>
@@ -5924,10 +5913,10 @@
         <v>0</v>
       </c>
       <c r="NP4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NQ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NR4" t="n">
         <v>0</v>
@@ -5942,13 +5931,13 @@
         <v>0</v>
       </c>
       <c r="NV4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW4" t="n">
         <v>1</v>
       </c>
       <c r="NX4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NY4" t="n">
         <v>0</v>
@@ -5960,12 +5949,9 @@
         <v>0</v>
       </c>
       <c r="OB4" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="OC4" t="n">
-        <v>55</v>
-      </c>
-      <c r="OD4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6707,10 +6693,10 @@
         <v>0</v>
       </c>
       <c r="IK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM5" t="n">
         <v>0</v>
@@ -6887,10 +6873,10 @@
         <v>0</v>
       </c>
       <c r="KS5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU5" t="n">
         <v>0</v>
@@ -6935,10 +6921,10 @@
         <v>0</v>
       </c>
       <c r="LI5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK5" t="n">
         <v>0</v>
@@ -6977,10 +6963,10 @@
         <v>0</v>
       </c>
       <c r="LW5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY5" t="n">
         <v>0</v>
@@ -7010,16 +6996,16 @@
         <v>0</v>
       </c>
       <c r="MH5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MI5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MJ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MK5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ML5" t="n">
         <v>0</v>
@@ -7034,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="MP5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR5" t="n">
         <v>0</v>
@@ -7130,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="NV5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX5" t="n">
         <v>0</v>
@@ -7151,9 +7137,6 @@
         <v>0</v>
       </c>
       <c r="OC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD5" t="n">
         <v>13</v>
       </c>
     </row>
@@ -7787,22 +7770,22 @@
         <v>0</v>
       </c>
       <c r="HA6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HD6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE6" t="n">
         <v>1</v>
       </c>
       <c r="HF6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG6" t="n">
         <v>0</v>
@@ -7820,10 +7803,10 @@
         <v>0</v>
       </c>
       <c r="HL6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN6" t="n">
         <v>0</v>
@@ -7865,10 +7848,10 @@
         <v>0</v>
       </c>
       <c r="IA6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC6" t="n">
         <v>0</v>
@@ -7892,13 +7875,13 @@
         <v>0</v>
       </c>
       <c r="IJ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK6" t="n">
         <v>1</v>
       </c>
       <c r="IL6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM6" t="n">
         <v>0</v>
@@ -7928,13 +7911,13 @@
         <v>0</v>
       </c>
       <c r="IV6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW6" t="n">
         <v>1</v>
       </c>
       <c r="IX6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IY6" t="n">
         <v>0</v>
@@ -7946,10 +7929,10 @@
         <v>0</v>
       </c>
       <c r="JB6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD6" t="n">
         <v>0</v>
@@ -7970,19 +7953,19 @@
         <v>0</v>
       </c>
       <c r="JJ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL6" t="n">
         <v>0</v>
       </c>
       <c r="JM6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO6" t="n">
         <v>0</v>
@@ -8003,19 +7986,19 @@
         <v>0</v>
       </c>
       <c r="JU6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW6" t="n">
         <v>0</v>
       </c>
       <c r="JX6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ6" t="n">
         <v>0</v>
@@ -8075,10 +8058,10 @@
         <v>0</v>
       </c>
       <c r="KS6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU6" t="n">
         <v>0</v>
@@ -8105,10 +8088,10 @@
         <v>0</v>
       </c>
       <c r="LC6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LD6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LE6" t="n">
         <v>0</v>
@@ -8123,10 +8106,10 @@
         <v>0</v>
       </c>
       <c r="LI6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK6" t="n">
         <v>0</v>
@@ -8159,16 +8142,16 @@
         <v>0</v>
       </c>
       <c r="LU6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LW6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY6" t="n">
         <v>0</v>
@@ -8210,10 +8193,10 @@
         <v>0</v>
       </c>
       <c r="ML6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MM6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MN6" t="n">
         <v>0</v>
@@ -8222,10 +8205,10 @@
         <v>0</v>
       </c>
       <c r="MP6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR6" t="n">
         <v>0</v>
@@ -8252,19 +8235,19 @@
         <v>0</v>
       </c>
       <c r="MZ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NA6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NB6" t="n">
         <v>0</v>
       </c>
       <c r="NC6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE6" t="n">
         <v>0</v>
@@ -8300,10 +8283,10 @@
         <v>0</v>
       </c>
       <c r="NP6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NQ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NR6" t="n">
         <v>0</v>
@@ -8336,12 +8319,9 @@
         <v>0</v>
       </c>
       <c r="OB6" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="OC6" t="n">
-        <v>53</v>
-      </c>
-      <c r="OD6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9263,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="KS7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU7" t="n">
         <v>0</v>
@@ -9449,10 +9429,10 @@
         <v>0</v>
       </c>
       <c r="NC7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE7" t="n">
         <v>0</v>
@@ -9506,10 +9486,10 @@
         <v>0</v>
       </c>
       <c r="NV7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX7" t="n">
         <v>0</v>
@@ -9527,9 +9507,6 @@
         <v>0</v>
       </c>
       <c r="OC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10637,10 +10614,10 @@
         <v>0</v>
       </c>
       <c r="NC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE8" t="n">
         <v>0</v>
@@ -10712,12 +10689,9 @@
         <v>0</v>
       </c>
       <c r="OB8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="OC8" t="n">
-        <v>3</v>
-      </c>
-      <c r="OD8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11639,10 +11613,10 @@
         <v>0</v>
       </c>
       <c r="KS9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU9" t="n">
         <v>0</v>
@@ -11825,10 +11799,10 @@
         <v>0</v>
       </c>
       <c r="NC9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE9" t="n">
         <v>0</v>
@@ -11882,10 +11856,10 @@
         <v>0</v>
       </c>
       <c r="NV9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX9" t="n">
         <v>0</v>
@@ -11900,12 +11874,9 @@
         <v>0</v>
       </c>
       <c r="OB9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="OC9" t="n">
-        <v>3</v>
-      </c>
-      <c r="OD9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -13093,9 +13064,6 @@
       <c r="OC10" t="n">
         <v>0</v>
       </c>
-      <c r="OD10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -13835,10 +13803,10 @@
         <v>0</v>
       </c>
       <c r="IK11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM11" t="n">
         <v>0</v>
@@ -14222,10 +14190,10 @@
         <v>0</v>
       </c>
       <c r="NJ11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NK11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NL11" t="n">
         <v>0</v>
@@ -14279,9 +14247,6 @@
         <v>0</v>
       </c>
       <c r="OC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -15467,9 +15432,6 @@
         <v>0</v>
       </c>
       <c r="OC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD12" t="n">
         <v>2</v>
       </c>
     </row>
@@ -16657,9 +16619,6 @@
       <c r="OC13" t="n">
         <v>0</v>
       </c>
-      <c r="OD13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -17483,10 +17442,10 @@
         <v>0</v>
       </c>
       <c r="JM14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO14" t="n">
         <v>0</v>
@@ -17765,10 +17724,10 @@
         <v>0</v>
       </c>
       <c r="NC14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE14" t="n">
         <v>0</v>
@@ -17840,12 +17799,9 @@
         <v>0</v>
       </c>
       <c r="OB14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OC14" t="n">
-        <v>4</v>
-      </c>
-      <c r="OD14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18836,10 +18792,10 @@
         <v>0</v>
       </c>
       <c r="LP15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LQ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LR15" t="n">
         <v>0</v>
@@ -19010,10 +18966,10 @@
         <v>0</v>
       </c>
       <c r="NV15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX15" t="n">
         <v>0</v>
@@ -19031,9 +18987,6 @@
         <v>0</v>
       </c>
       <c r="OC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -19667,7 +19620,7 @@
         <v>0</v>
       </c>
       <c r="HA16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB16" t="n">
         <v>0</v>
@@ -19682,10 +19635,10 @@
         <v>0</v>
       </c>
       <c r="HF16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH16" t="n">
         <v>0</v>
@@ -19724,19 +19677,19 @@
         <v>0</v>
       </c>
       <c r="HT16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW16" t="n">
         <v>1</v>
       </c>
       <c r="HX16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY16" t="n">
         <v>0</v>
@@ -19772,10 +19725,10 @@
         <v>0</v>
       </c>
       <c r="IJ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL16" t="n">
         <v>0</v>
@@ -19793,10 +19746,10 @@
         <v>0</v>
       </c>
       <c r="IQ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS16" t="n">
         <v>0</v>
@@ -19808,10 +19761,10 @@
         <v>0</v>
       </c>
       <c r="IV16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX16" t="n">
         <v>0</v>
@@ -19823,13 +19776,13 @@
         <v>0</v>
       </c>
       <c r="JA16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB16" t="n">
         <v>1</v>
       </c>
       <c r="JC16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD16" t="n">
         <v>0</v>
@@ -19850,19 +19803,19 @@
         <v>0</v>
       </c>
       <c r="JJ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL16" t="n">
         <v>0</v>
       </c>
       <c r="JM16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO16" t="n">
         <v>0</v>
@@ -19877,34 +19830,34 @@
         <v>0</v>
       </c>
       <c r="JS16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY16" t="n">
         <v>0</v>
       </c>
       <c r="JZ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA16" t="n">
         <v>1</v>
       </c>
       <c r="KB16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KC16" t="n">
         <v>0</v>
@@ -19931,13 +19884,13 @@
         <v>0</v>
       </c>
       <c r="KK16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KL16" t="n">
         <v>1</v>
       </c>
       <c r="KM16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN16" t="n">
         <v>0</v>
@@ -19949,16 +19902,16 @@
         <v>0</v>
       </c>
       <c r="KQ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KR16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KS16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU16" t="n">
         <v>0</v>
@@ -19985,10 +19938,10 @@
         <v>0</v>
       </c>
       <c r="LC16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LD16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LE16" t="n">
         <v>0</v>
@@ -20003,10 +19956,10 @@
         <v>0</v>
       </c>
       <c r="LI16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK16" t="n">
         <v>0</v>
@@ -20045,10 +19998,10 @@
         <v>0</v>
       </c>
       <c r="LW16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY16" t="n">
         <v>0</v>
@@ -20057,7 +20010,7 @@
         <v>0</v>
       </c>
       <c r="MA16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MB16" t="n">
         <v>1</v>
@@ -20069,31 +20022,31 @@
         <v>1</v>
       </c>
       <c r="ME16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MF16" t="n">
         <v>0</v>
       </c>
       <c r="MG16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MH16" t="n">
         <v>1</v>
       </c>
       <c r="MI16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MJ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MK16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ML16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MM16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MN16" t="n">
         <v>0</v>
@@ -20102,10 +20055,10 @@
         <v>0</v>
       </c>
       <c r="MP16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR16" t="n">
         <v>0</v>
@@ -20117,10 +20070,10 @@
         <v>0</v>
       </c>
       <c r="MU16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MV16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MW16" t="n">
         <v>0</v>
@@ -20129,22 +20082,22 @@
         <v>0</v>
       </c>
       <c r="MY16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MZ16" t="n">
         <v>1</v>
       </c>
       <c r="NA16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NB16" t="n">
         <v>0</v>
       </c>
       <c r="NC16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE16" t="n">
         <v>0</v>
@@ -20159,10 +20112,10 @@
         <v>0</v>
       </c>
       <c r="NI16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NJ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NK16" t="n">
         <v>0</v>
@@ -20177,10 +20130,10 @@
         <v>0</v>
       </c>
       <c r="NO16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NP16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NQ16" t="n">
         <v>0</v>
@@ -20198,16 +20151,16 @@
         <v>0</v>
       </c>
       <c r="NV16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NY16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NZ16" t="n">
         <v>0</v>
@@ -20219,10 +20172,7 @@
         <v>0</v>
       </c>
       <c r="OC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD16" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -21065,10 +21015,10 @@
         <v>0</v>
       </c>
       <c r="JS17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU17" t="n">
         <v>0</v>
@@ -21386,10 +21336,10 @@
         <v>0</v>
       </c>
       <c r="NV17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX17" t="n">
         <v>0</v>
@@ -21407,9 +21357,6 @@
         <v>0</v>
       </c>
       <c r="OC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22133,10 +22080,10 @@
         <v>0</v>
       </c>
       <c r="IE18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG18" t="n">
         <v>0</v>
@@ -22151,10 +22098,10 @@
         <v>0</v>
       </c>
       <c r="IK18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM18" t="n">
         <v>0</v>
@@ -22181,10 +22128,10 @@
         <v>0</v>
       </c>
       <c r="IU18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW18" t="n">
         <v>0</v>
@@ -22268,19 +22215,19 @@
         <v>0</v>
       </c>
       <c r="JX18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA18" t="n">
         <v>1</v>
       </c>
       <c r="KB18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KC18" t="n">
         <v>0</v>
@@ -22331,10 +22278,10 @@
         <v>0</v>
       </c>
       <c r="KS18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU18" t="n">
         <v>0</v>
@@ -22421,10 +22368,10 @@
         <v>0</v>
       </c>
       <c r="LW18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY18" t="n">
         <v>0</v>
@@ -22475,13 +22422,13 @@
         <v>0</v>
       </c>
       <c r="MO18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MP18" t="n">
         <v>1</v>
       </c>
       <c r="MQ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR18" t="n">
         <v>0</v>
@@ -22541,10 +22488,10 @@
         <v>0</v>
       </c>
       <c r="NK18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NL18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NM18" t="n">
         <v>0</v>
@@ -22574,16 +22521,16 @@
         <v>0</v>
       </c>
       <c r="NV18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NY18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NZ18" t="n">
         <v>0</v>
@@ -22595,9 +22542,6 @@
         <v>0</v>
       </c>
       <c r="OC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD18" t="n">
         <v>33</v>
       </c>
     </row>
@@ -23297,10 +23241,10 @@
         <v>0</v>
       </c>
       <c r="HW19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY19" t="n">
         <v>0</v>
@@ -23336,10 +23280,10 @@
         <v>0</v>
       </c>
       <c r="IJ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL19" t="n">
         <v>0</v>
@@ -23357,10 +23301,10 @@
         <v>0</v>
       </c>
       <c r="IQ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS19" t="n">
         <v>0</v>
@@ -23453,10 +23397,10 @@
         <v>0</v>
       </c>
       <c r="JW19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY19" t="n">
         <v>0</v>
@@ -23519,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="KS19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU19" t="n">
         <v>0</v>
@@ -23603,16 +23547,16 @@
         <v>0</v>
       </c>
       <c r="LU19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LW19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY19" t="n">
         <v>0</v>
@@ -23666,10 +23610,10 @@
         <v>0</v>
       </c>
       <c r="MP19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR19" t="n">
         <v>0</v>
@@ -23690,10 +23634,10 @@
         <v>0</v>
       </c>
       <c r="MX19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MY19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MZ19" t="n">
         <v>0</v>
@@ -23768,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="NX19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NY19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NZ19" t="n">
         <v>0</v>
@@ -23783,9 +23727,6 @@
         <v>0</v>
       </c>
       <c r="OC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD19" t="n">
         <v>12</v>
       </c>
     </row>
@@ -24419,25 +24360,25 @@
         <v>0</v>
       </c>
       <c r="HA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HD20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH20" t="n">
         <v>0</v>
@@ -24449,13 +24390,13 @@
         <v>0</v>
       </c>
       <c r="HK20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL20" t="n">
         <v>1</v>
       </c>
       <c r="HM20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN20" t="n">
         <v>0</v>
@@ -24482,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="HV20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW20" t="n">
         <v>1</v>
       </c>
       <c r="HX20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY20" t="n">
         <v>0</v>
@@ -24497,19 +24438,19 @@
         <v>0</v>
       </c>
       <c r="IA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC20" t="n">
         <v>0</v>
       </c>
       <c r="ID20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF20" t="n">
         <v>0</v>
@@ -24527,28 +24468,28 @@
         <v>0</v>
       </c>
       <c r="IK20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO20" t="n">
         <v>0</v>
       </c>
       <c r="IP20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ20" t="n">
         <v>1</v>
       </c>
       <c r="IR20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS20" t="n">
         <v>0</v>
@@ -24560,10 +24501,10 @@
         <v>0</v>
       </c>
       <c r="IV20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX20" t="n">
         <v>0</v>
@@ -24575,10 +24516,10 @@
         <v>0</v>
       </c>
       <c r="JA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC20" t="n">
         <v>0</v>
@@ -24599,22 +24540,22 @@
         <v>0</v>
       </c>
       <c r="JI20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ20" t="n">
         <v>1</v>
       </c>
       <c r="JK20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL20" t="n">
         <v>0</v>
       </c>
       <c r="JM20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO20" t="n">
         <v>0</v>
@@ -24635,28 +24576,28 @@
         <v>0</v>
       </c>
       <c r="JU20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX20" t="n">
         <v>1</v>
       </c>
       <c r="JY20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA20" t="n">
         <v>1</v>
       </c>
       <c r="KB20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KC20" t="n">
         <v>0</v>
@@ -24680,10 +24621,10 @@
         <v>0</v>
       </c>
       <c r="KJ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KL20" t="n">
         <v>0</v>
@@ -24701,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="KQ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KR20" t="n">
         <v>1</v>
@@ -24710,13 +24651,13 @@
         <v>1</v>
       </c>
       <c r="KT20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KV20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KW20" t="n">
         <v>0</v>
@@ -24737,10 +24678,10 @@
         <v>0</v>
       </c>
       <c r="LC20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LD20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LE20" t="n">
         <v>0</v>
@@ -24749,16 +24690,16 @@
         <v>0</v>
       </c>
       <c r="LG20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LH20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LI20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK20" t="n">
         <v>0</v>
@@ -24773,13 +24714,13 @@
         <v>0</v>
       </c>
       <c r="LO20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LP20" t="n">
         <v>1</v>
       </c>
       <c r="LQ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LR20" t="n">
         <v>0</v>
@@ -24791,16 +24732,16 @@
         <v>0</v>
       </c>
       <c r="LU20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LW20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY20" t="n">
         <v>0</v>
@@ -24812,16 +24753,16 @@
         <v>0</v>
       </c>
       <c r="MB20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MC20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MD20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ME20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MF20" t="n">
         <v>0</v>
@@ -24830,28 +24771,28 @@
         <v>0</v>
       </c>
       <c r="MH20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MI20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MJ20" t="n">
         <v>0</v>
       </c>
       <c r="MK20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ML20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MM20" t="n">
         <v>0</v>
       </c>
       <c r="MN20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MP20" t="n">
         <v>0</v>
@@ -24875,31 +24816,31 @@
         <v>0</v>
       </c>
       <c r="MW20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MX20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MZ20" t="n">
         <v>1</v>
       </c>
       <c r="NA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NB20" t="n">
         <v>0</v>
       </c>
       <c r="NC20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND20" t="n">
         <v>1</v>
       </c>
       <c r="NE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NF20" t="n">
         <v>0</v>
@@ -24911,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="NI20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NJ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NK20" t="n">
         <v>0</v>
@@ -24932,10 +24873,10 @@
         <v>0</v>
       </c>
       <c r="NP20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NQ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NR20" t="n">
         <v>0</v>
@@ -24950,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="NV20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NY20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NZ20" t="n">
         <v>0</v>
@@ -24968,12 +24909,9 @@
         <v>0</v>
       </c>
       <c r="OB20" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="OC20" t="n">
-        <v>92</v>
-      </c>
-      <c r="OD20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25733,10 +25671,10 @@
         <v>0</v>
       </c>
       <c r="IQ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS21" t="n">
         <v>0</v>
@@ -25817,10 +25755,10 @@
         <v>0</v>
       </c>
       <c r="JS21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU21" t="n">
         <v>0</v>
@@ -26006,10 +25944,10 @@
         <v>0</v>
       </c>
       <c r="MD21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ME21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MF21" t="n">
         <v>0</v>
@@ -26030,10 +25968,10 @@
         <v>0</v>
       </c>
       <c r="ML21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MM21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MN21" t="n">
         <v>0</v>
@@ -26081,10 +26019,10 @@
         <v>0</v>
       </c>
       <c r="NC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE21" t="n">
         <v>0</v>
@@ -26138,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="NV21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NY21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NZ21" t="n">
         <v>0</v>
@@ -26159,9 +26097,6 @@
         <v>0</v>
       </c>
       <c r="OC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD21" t="n">
         <v>16</v>
       </c>
     </row>
@@ -27023,10 +26958,10 @@
         <v>0</v>
       </c>
       <c r="JY22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KA22" t="n">
         <v>0</v>
@@ -27083,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="KS22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU22" t="n">
         <v>0</v>
@@ -27173,10 +27108,10 @@
         <v>0</v>
       </c>
       <c r="LW22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY22" t="n">
         <v>0</v>
@@ -27254,10 +27189,10 @@
         <v>0</v>
       </c>
       <c r="MX22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MY22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MZ22" t="n">
         <v>0</v>
@@ -27326,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="NV22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX22" t="n">
         <v>0</v>
@@ -27347,9 +27282,6 @@
         <v>0</v>
       </c>
       <c r="OC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD22" t="n">
         <v>6</v>
       </c>
     </row>
@@ -28088,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="IJ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL23" t="n">
         <v>0</v>
@@ -28166,19 +28098,19 @@
         <v>0</v>
       </c>
       <c r="JJ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL23" t="n">
         <v>0</v>
       </c>
       <c r="JM23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO23" t="n">
         <v>0</v>
@@ -28355,16 +28287,16 @@
         <v>0</v>
       </c>
       <c r="LU23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LW23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY23" t="n">
         <v>0</v>
@@ -28532,12 +28464,9 @@
         <v>0</v>
       </c>
       <c r="OB23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="OC23" t="n">
-        <v>9</v>
-      </c>
-      <c r="OD23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29171,22 +29100,22 @@
         <v>0</v>
       </c>
       <c r="HA24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HD24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE24" t="n">
         <v>1</v>
       </c>
       <c r="HF24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG24" t="n">
         <v>0</v>
@@ -29204,10 +29133,10 @@
         <v>0</v>
       </c>
       <c r="HL24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN24" t="n">
         <v>0</v>
@@ -29264,10 +29193,10 @@
         <v>0</v>
       </c>
       <c r="IF24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH24" t="n">
         <v>0</v>
@@ -29276,13 +29205,13 @@
         <v>0</v>
       </c>
       <c r="IJ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK24" t="n">
         <v>1</v>
       </c>
       <c r="IL24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM24" t="n">
         <v>0</v>
@@ -29312,13 +29241,13 @@
         <v>0</v>
       </c>
       <c r="IV24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW24" t="n">
         <v>1</v>
       </c>
       <c r="IX24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IY24" t="n">
         <v>0</v>
@@ -29330,13 +29259,13 @@
         <v>0</v>
       </c>
       <c r="JB24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC24" t="n">
         <v>1</v>
       </c>
       <c r="JD24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JE24" t="n">
         <v>0</v>
@@ -29354,61 +29283,61 @@
         <v>0</v>
       </c>
       <c r="JJ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL24" t="n">
         <v>0</v>
       </c>
       <c r="JM24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JQ24" t="n">
         <v>0</v>
       </c>
       <c r="JR24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS24" t="n">
         <v>1</v>
       </c>
       <c r="JT24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW24" t="n">
         <v>0</v>
       </c>
       <c r="JX24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ24" t="n">
         <v>0</v>
       </c>
       <c r="KA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KB24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KC24" t="n">
         <v>0</v>
@@ -29426,10 +29355,10 @@
         <v>0</v>
       </c>
       <c r="KH24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KI24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KJ24" t="n">
         <v>0</v>
@@ -29456,19 +29385,19 @@
         <v>0</v>
       </c>
       <c r="KR24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS24" t="n">
         <v>1</v>
       </c>
       <c r="KT24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KV24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KW24" t="n">
         <v>0</v>
@@ -29489,10 +29418,10 @@
         <v>0</v>
       </c>
       <c r="LC24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LD24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LE24" t="n">
         <v>0</v>
@@ -29507,10 +29436,10 @@
         <v>0</v>
       </c>
       <c r="LI24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK24" t="n">
         <v>0</v>
@@ -29540,19 +29469,19 @@
         <v>0</v>
       </c>
       <c r="LT24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LU24" t="n">
         <v>1</v>
       </c>
       <c r="LV24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LW24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY24" t="n">
         <v>0</v>
@@ -29582,10 +29511,10 @@
         <v>0</v>
       </c>
       <c r="MH24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MI24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MJ24" t="n">
         <v>0</v>
@@ -29606,10 +29535,10 @@
         <v>0</v>
       </c>
       <c r="MP24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR24" t="n">
         <v>0</v>
@@ -29627,16 +29556,16 @@
         <v>0</v>
       </c>
       <c r="MW24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MX24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MZ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NA24" t="n">
         <v>0</v>
@@ -29645,10 +29574,10 @@
         <v>0</v>
       </c>
       <c r="NC24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE24" t="n">
         <v>0</v>
@@ -29663,19 +29592,19 @@
         <v>0</v>
       </c>
       <c r="NI24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NJ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NK24" t="n">
         <v>0</v>
       </c>
       <c r="NL24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NM24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NN24" t="n">
         <v>0</v>
@@ -29684,10 +29613,10 @@
         <v>0</v>
       </c>
       <c r="NP24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NQ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NR24" t="n">
         <v>0</v>
@@ -29702,10 +29631,10 @@
         <v>0</v>
       </c>
       <c r="NV24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX24" t="n">
         <v>0</v>
@@ -29720,12 +29649,9 @@
         <v>0</v>
       </c>
       <c r="OB24" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="OC24" t="n">
-        <v>78</v>
-      </c>
-      <c r="OD24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30464,10 +30390,10 @@
         <v>0</v>
       </c>
       <c r="IJ25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL25" t="n">
         <v>0</v>
@@ -30485,10 +30411,10 @@
         <v>0</v>
       </c>
       <c r="IQ25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS25" t="n">
         <v>0</v>
@@ -30515,10 +30441,10 @@
         <v>0</v>
       </c>
       <c r="JA25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC25" t="n">
         <v>0</v>
@@ -30569,28 +30495,28 @@
         <v>0</v>
       </c>
       <c r="JS25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KA25" t="n">
         <v>0</v>
@@ -30617,10 +30543,10 @@
         <v>0</v>
       </c>
       <c r="KI25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KK25" t="n">
         <v>0</v>
@@ -30632,10 +30558,10 @@
         <v>0</v>
       </c>
       <c r="KN25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KO25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP25" t="n">
         <v>0</v>
@@ -30647,10 +30573,10 @@
         <v>0</v>
       </c>
       <c r="KS25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU25" t="n">
         <v>0</v>
@@ -30677,10 +30603,10 @@
         <v>0</v>
       </c>
       <c r="LC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LD25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LE25" t="n">
         <v>0</v>
@@ -30794,10 +30720,10 @@
         <v>0</v>
       </c>
       <c r="MP25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR25" t="n">
         <v>0</v>
@@ -30818,10 +30744,10 @@
         <v>0</v>
       </c>
       <c r="MX25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MY25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MZ25" t="n">
         <v>0</v>
@@ -30833,10 +30759,10 @@
         <v>0</v>
       </c>
       <c r="NC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE25" t="n">
         <v>0</v>
@@ -30890,10 +30816,10 @@
         <v>0</v>
       </c>
       <c r="NV25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX25" t="n">
         <v>0</v>
@@ -30911,9 +30837,6 @@
         <v>0</v>
       </c>
       <c r="OC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD25" t="n">
         <v>32</v>
       </c>
     </row>
@@ -31556,10 +31479,10 @@
         <v>0</v>
       </c>
       <c r="HD26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF26" t="n">
         <v>0</v>
@@ -31655,10 +31578,10 @@
         <v>0</v>
       </c>
       <c r="IK26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM26" t="n">
         <v>0</v>
@@ -31730,10 +31653,10 @@
         <v>0</v>
       </c>
       <c r="JJ26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL26" t="n">
         <v>0</v>
@@ -31772,10 +31695,10 @@
         <v>0</v>
       </c>
       <c r="JX26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ26" t="n">
         <v>0</v>
@@ -31925,10 +31848,10 @@
         <v>0</v>
       </c>
       <c r="LW26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY26" t="n">
         <v>0</v>
@@ -32096,12 +32019,9 @@
         <v>0</v>
       </c>
       <c r="OB26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="OC26" t="n">
-        <v>10</v>
-      </c>
-      <c r="OD26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32744,10 +32664,10 @@
         <v>0</v>
       </c>
       <c r="HD27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF27" t="n">
         <v>0</v>
@@ -32843,10 +32763,10 @@
         <v>0</v>
       </c>
       <c r="IK27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM27" t="n">
         <v>0</v>
@@ -32918,10 +32838,10 @@
         <v>0</v>
       </c>
       <c r="JJ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL27" t="n">
         <v>0</v>
@@ -33113,10 +33033,10 @@
         <v>0</v>
       </c>
       <c r="LW27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY27" t="n">
         <v>0</v>
@@ -33284,12 +33204,9 @@
         <v>0</v>
       </c>
       <c r="OB27" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="OC27" t="n">
-        <v>10</v>
-      </c>
-      <c r="OD27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33932,10 +33849,10 @@
         <v>0</v>
       </c>
       <c r="HD28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF28" t="n">
         <v>0</v>
@@ -34106,10 +34023,10 @@
         <v>0</v>
       </c>
       <c r="JJ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL28" t="n">
         <v>0</v>
@@ -34472,12 +34389,9 @@
         <v>0</v>
       </c>
       <c r="OB28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OC28" t="n">
-        <v>4</v>
-      </c>
-      <c r="OD28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35111,7 +35025,7 @@
         <v>0</v>
       </c>
       <c r="HA29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB29" t="n">
         <v>0</v>
@@ -35120,10 +35034,10 @@
         <v>0</v>
       </c>
       <c r="HD29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF29" t="n">
         <v>0</v>
@@ -35216,13 +35130,13 @@
         <v>0</v>
       </c>
       <c r="IJ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK29" t="n">
         <v>1</v>
       </c>
       <c r="IL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM29" t="n">
         <v>0</v>
@@ -35252,10 +35166,10 @@
         <v>0</v>
       </c>
       <c r="IV29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX29" t="n">
         <v>0</v>
@@ -35270,10 +35184,10 @@
         <v>0</v>
       </c>
       <c r="JB29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD29" t="n">
         <v>0</v>
@@ -35294,10 +35208,10 @@
         <v>0</v>
       </c>
       <c r="JJ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL29" t="n">
         <v>0</v>
@@ -35327,19 +35241,19 @@
         <v>0</v>
       </c>
       <c r="JU29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW29" t="n">
         <v>0</v>
       </c>
       <c r="JX29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ29" t="n">
         <v>0</v>
@@ -35399,10 +35313,10 @@
         <v>0</v>
       </c>
       <c r="KS29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU29" t="n">
         <v>0</v>
@@ -35483,16 +35397,16 @@
         <v>0</v>
       </c>
       <c r="LU29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LW29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY29" t="n">
         <v>0</v>
@@ -35546,10 +35460,10 @@
         <v>0</v>
       </c>
       <c r="MP29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR29" t="n">
         <v>0</v>
@@ -35624,10 +35538,10 @@
         <v>0</v>
       </c>
       <c r="NP29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NQ29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NR29" t="n">
         <v>0</v>
@@ -35660,12 +35574,9 @@
         <v>0</v>
       </c>
       <c r="OB29" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="OC29" t="n">
-        <v>30</v>
-      </c>
-      <c r="OD29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36404,10 +36315,10 @@
         <v>0</v>
       </c>
       <c r="IJ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL30" t="n">
         <v>0</v>
@@ -36587,10 +36498,10 @@
         <v>0</v>
       </c>
       <c r="KS30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU30" t="n">
         <v>0</v>
@@ -36677,10 +36588,10 @@
         <v>0</v>
       </c>
       <c r="LW30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY30" t="n">
         <v>0</v>
@@ -36734,10 +36645,10 @@
         <v>0</v>
       </c>
       <c r="MP30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR30" t="n">
         <v>0</v>
@@ -36830,10 +36741,10 @@
         <v>0</v>
       </c>
       <c r="NV30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX30" t="n">
         <v>0</v>
@@ -36851,9 +36762,6 @@
         <v>0</v>
       </c>
       <c r="OC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD30" t="n">
         <v>7</v>
       </c>
     </row>
@@ -37922,10 +37830,10 @@
         <v>0</v>
       </c>
       <c r="MP31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR31" t="n">
         <v>0</v>
@@ -38039,9 +37947,6 @@
         <v>0</v>
       </c>
       <c r="OC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -38783,10 +38688,10 @@
         <v>0</v>
       </c>
       <c r="IK32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM32" t="n">
         <v>0</v>
@@ -39227,9 +39132,6 @@
         <v>0</v>
       </c>
       <c r="OC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD32" t="n">
         <v>3</v>
       </c>
     </row>
@@ -40417,9 +40319,6 @@
       <c r="OC33" t="n">
         <v>0</v>
       </c>
-      <c r="OD33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -41087,10 +40986,10 @@
         <v>0</v>
       </c>
       <c r="HM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HO34" t="n">
         <v>0</v>
@@ -41366,10 +41265,10 @@
         <v>0</v>
       </c>
       <c r="LB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LC34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LD34" t="n">
         <v>0</v>
@@ -41603,9 +41502,6 @@
         <v>0</v>
       </c>
       <c r="OC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD34" t="n">
         <v>6</v>
       </c>
     </row>
@@ -42254,10 +42150,10 @@
         <v>0</v>
       </c>
       <c r="HF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH35" t="n">
         <v>0</v>
@@ -42302,13 +42198,13 @@
         <v>0</v>
       </c>
       <c r="HV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW35" t="n">
         <v>1</v>
       </c>
       <c r="HX35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY35" t="n">
         <v>0</v>
@@ -42317,22 +42213,22 @@
         <v>0</v>
       </c>
       <c r="IA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB35" t="n">
         <v>1</v>
       </c>
       <c r="IC35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ID35" t="n">
         <v>0</v>
       </c>
       <c r="IE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG35" t="n">
         <v>0</v>
@@ -42344,10 +42240,10 @@
         <v>0</v>
       </c>
       <c r="IJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL35" t="n">
         <v>0</v>
@@ -42365,10 +42261,10 @@
         <v>0</v>
       </c>
       <c r="IQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS35" t="n">
         <v>0</v>
@@ -42419,22 +42315,22 @@
         <v>0</v>
       </c>
       <c r="JI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ35" t="n">
         <v>1</v>
       </c>
       <c r="JK35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL35" t="n">
         <v>0</v>
       </c>
       <c r="JM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO35" t="n">
         <v>0</v>
@@ -42449,25 +42345,25 @@
         <v>0</v>
       </c>
       <c r="JS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX35" t="n">
         <v>1</v>
       </c>
       <c r="JY35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ35" t="n">
         <v>0</v>
@@ -42503,10 +42399,10 @@
         <v>0</v>
       </c>
       <c r="KK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KL35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM35" t="n">
         <v>0</v>
@@ -42527,10 +42423,10 @@
         <v>0</v>
       </c>
       <c r="KS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU35" t="n">
         <v>0</v>
@@ -42557,10 +42453,10 @@
         <v>0</v>
       </c>
       <c r="LC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LD35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LE35" t="n">
         <v>0</v>
@@ -42596,10 +42492,10 @@
         <v>0</v>
       </c>
       <c r="LP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LQ35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LR35" t="n">
         <v>0</v>
@@ -42611,16 +42507,16 @@
         <v>0</v>
       </c>
       <c r="LU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY35" t="n">
         <v>0</v>
@@ -42638,10 +42534,10 @@
         <v>0</v>
       </c>
       <c r="MD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ME35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MF35" t="n">
         <v>0</v>
@@ -42650,10 +42546,10 @@
         <v>0</v>
       </c>
       <c r="MH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MI35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MJ35" t="n">
         <v>0</v>
@@ -42665,19 +42561,19 @@
         <v>0</v>
       </c>
       <c r="MM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MN35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MO35" t="n">
         <v>0</v>
       </c>
       <c r="MP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR35" t="n">
         <v>0</v>
@@ -42713,10 +42609,10 @@
         <v>0</v>
       </c>
       <c r="NC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE35" t="n">
         <v>0</v>
@@ -42770,16 +42666,16 @@
         <v>0</v>
       </c>
       <c r="NV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NY35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NZ35" t="n">
         <v>0</v>
@@ -42791,9 +42687,6 @@
         <v>0</v>
       </c>
       <c r="OC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD35" t="n">
         <v>47</v>
       </c>
     </row>
@@ -43490,10 +43383,10 @@
         <v>0</v>
       </c>
       <c r="HV36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX36" t="n">
         <v>0</v>
@@ -43550,13 +43443,13 @@
         <v>0</v>
       </c>
       <c r="IP36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ36" t="n">
         <v>1</v>
       </c>
       <c r="IR36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS36" t="n">
         <v>0</v>
@@ -43571,10 +43464,10 @@
         <v>0</v>
       </c>
       <c r="IW36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IY36" t="n">
         <v>0</v>
@@ -43607,10 +43500,10 @@
         <v>0</v>
       </c>
       <c r="JI36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK36" t="n">
         <v>0</v>
@@ -43622,10 +43515,10 @@
         <v>0</v>
       </c>
       <c r="JN36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JO36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JP36" t="n">
         <v>0</v>
@@ -43715,13 +43608,13 @@
         <v>0</v>
       </c>
       <c r="KS36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT36" t="n">
         <v>1</v>
       </c>
       <c r="KU36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KV36" t="n">
         <v>0</v>
@@ -43763,10 +43656,10 @@
         <v>0</v>
       </c>
       <c r="LI36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK36" t="n">
         <v>0</v>
@@ -43805,16 +43698,16 @@
         <v>0</v>
       </c>
       <c r="LW36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LZ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MA36" t="n">
         <v>0</v>
@@ -43838,10 +43731,10 @@
         <v>0</v>
       </c>
       <c r="MH36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MI36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MJ36" t="n">
         <v>0</v>
@@ -43862,10 +43755,10 @@
         <v>0</v>
       </c>
       <c r="MP36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR36" t="n">
         <v>0</v>
@@ -43979,9 +43872,6 @@
         <v>0</v>
       </c>
       <c r="OC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD36" t="n">
         <v>19</v>
       </c>
     </row>
@@ -45164,12 +45054,9 @@
         <v>0</v>
       </c>
       <c r="OB37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OC37" t="n">
-        <v>1</v>
-      </c>
-      <c r="OD37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46013,10 +45900,10 @@
         <v>0</v>
       </c>
       <c r="JS38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU38" t="n">
         <v>0</v>
@@ -46238,10 +46125,10 @@
         <v>0</v>
       </c>
       <c r="MP38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR38" t="n">
         <v>0</v>
@@ -46340,10 +46227,10 @@
         <v>0</v>
       </c>
       <c r="NX38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NY38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NZ38" t="n">
         <v>0</v>
@@ -46355,9 +46242,6 @@
         <v>0</v>
       </c>
       <c r="OC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD38" t="n">
         <v>5</v>
       </c>
     </row>
@@ -47000,10 +46884,10 @@
         <v>0</v>
       </c>
       <c r="HD39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF39" t="n">
         <v>0</v>
@@ -47021,13 +46905,13 @@
         <v>0</v>
       </c>
       <c r="HK39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL39" t="n">
         <v>1</v>
       </c>
       <c r="HM39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN39" t="n">
         <v>0</v>
@@ -47099,10 +46983,10 @@
         <v>0</v>
       </c>
       <c r="IK39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM39" t="n">
         <v>0</v>
@@ -47132,10 +47016,10 @@
         <v>0</v>
       </c>
       <c r="IV39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX39" t="n">
         <v>0</v>
@@ -47159,25 +47043,25 @@
         <v>0</v>
       </c>
       <c r="JE39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JF39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JG39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JH39" t="n">
         <v>1</v>
       </c>
       <c r="JI39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL39" t="n">
         <v>0</v>
@@ -47201,10 +47085,10 @@
         <v>0</v>
       </c>
       <c r="JS39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU39" t="n">
         <v>0</v>
@@ -47216,10 +47100,10 @@
         <v>0</v>
       </c>
       <c r="JX39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ39" t="n">
         <v>0</v>
@@ -47321,10 +47205,10 @@
         <v>0</v>
       </c>
       <c r="LG39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LH39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LI39" t="n">
         <v>0</v>
@@ -47363,16 +47247,16 @@
         <v>0</v>
       </c>
       <c r="LU39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LW39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY39" t="n">
         <v>0</v>
@@ -47447,10 +47331,10 @@
         <v>0</v>
       </c>
       <c r="MW39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MX39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY39" t="n">
         <v>0</v>
@@ -47525,10 +47409,10 @@
         <v>0</v>
       </c>
       <c r="NW39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NX39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NY39" t="n">
         <v>0</v>
@@ -47540,12 +47424,9 @@
         <v>0</v>
       </c>
       <c r="OB39" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="OC39" t="n">
-        <v>29</v>
-      </c>
-      <c r="OD39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48188,10 +48069,10 @@
         <v>0</v>
       </c>
       <c r="HD40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF40" t="n">
         <v>0</v>
@@ -48305,10 +48186,10 @@
         <v>0</v>
       </c>
       <c r="IQ40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS40" t="n">
         <v>0</v>
@@ -48362,10 +48243,10 @@
         <v>0</v>
       </c>
       <c r="JJ40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL40" t="n">
         <v>0</v>
@@ -48653,10 +48534,10 @@
         <v>0</v>
       </c>
       <c r="NC40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE40" t="n">
         <v>0</v>
@@ -48728,12 +48609,9 @@
         <v>0</v>
       </c>
       <c r="OB40" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="OC40" t="n">
-        <v>8</v>
-      </c>
-      <c r="OD40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49919,9 +49797,6 @@
         <v>0</v>
       </c>
       <c r="OC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -50621,10 +50496,10 @@
         <v>0</v>
       </c>
       <c r="HW42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY42" t="n">
         <v>0</v>
@@ -50747,10 +50622,10 @@
         <v>0</v>
       </c>
       <c r="JM42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO42" t="n">
         <v>0</v>
@@ -50765,16 +50640,16 @@
         <v>0</v>
       </c>
       <c r="JS42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW42" t="n">
         <v>0</v>
@@ -50843,10 +50718,10 @@
         <v>0</v>
       </c>
       <c r="KS42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU42" t="n">
         <v>0</v>
@@ -50933,10 +50808,10 @@
         <v>0</v>
       </c>
       <c r="LW42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY42" t="n">
         <v>0</v>
@@ -50954,10 +50829,10 @@
         <v>0</v>
       </c>
       <c r="MD42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ME42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MF42" t="n">
         <v>0</v>
@@ -50966,10 +50841,10 @@
         <v>0</v>
       </c>
       <c r="MH42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MI42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MJ42" t="n">
         <v>0</v>
@@ -50990,10 +50865,10 @@
         <v>0</v>
       </c>
       <c r="MP42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR42" t="n">
         <v>0</v>
@@ -51005,19 +50880,19 @@
         <v>0</v>
       </c>
       <c r="MU42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MV42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MW42" t="n">
         <v>0</v>
       </c>
       <c r="MX42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MY42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MZ42" t="n">
         <v>0</v>
@@ -51029,10 +50904,10 @@
         <v>0</v>
       </c>
       <c r="NC42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE42" t="n">
         <v>0</v>
@@ -51086,19 +50961,19 @@
         <v>0</v>
       </c>
       <c r="NV42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NY42" t="n">
         <v>1</v>
       </c>
       <c r="NZ42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OA42" t="n">
         <v>0</v>
@@ -51107,9 +50982,6 @@
         <v>0</v>
       </c>
       <c r="OC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD42" t="n">
         <v>24</v>
       </c>
     </row>
@@ -51743,7 +51615,7 @@
         <v>0</v>
       </c>
       <c r="HA43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB43" t="n">
         <v>0</v>
@@ -51752,10 +51624,10 @@
         <v>0</v>
       </c>
       <c r="HD43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF43" t="n">
         <v>0</v>
@@ -51851,10 +51723,10 @@
         <v>0</v>
       </c>
       <c r="IK43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM43" t="n">
         <v>0</v>
@@ -51902,10 +51774,10 @@
         <v>0</v>
       </c>
       <c r="JB43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD43" t="n">
         <v>0</v>
@@ -51926,10 +51798,10 @@
         <v>0</v>
       </c>
       <c r="JJ43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL43" t="n">
         <v>0</v>
@@ -52115,10 +51987,10 @@
         <v>0</v>
       </c>
       <c r="LU43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LW43" t="n">
         <v>0</v>
@@ -52256,10 +52128,10 @@
         <v>0</v>
       </c>
       <c r="NP43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NQ43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NR43" t="n">
         <v>0</v>
@@ -52292,12 +52164,9 @@
         <v>0</v>
       </c>
       <c r="OB43" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="OC43" t="n">
-        <v>14</v>
-      </c>
-      <c r="OD43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53057,10 +52926,10 @@
         <v>0</v>
       </c>
       <c r="IQ44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS44" t="n">
         <v>0</v>
@@ -53366,10 +53235,10 @@
         <v>0</v>
       </c>
       <c r="MP44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR44" t="n">
         <v>0</v>
@@ -53462,10 +53331,10 @@
         <v>0</v>
       </c>
       <c r="NV44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX44" t="n">
         <v>0</v>
@@ -53483,9 +53352,6 @@
         <v>0</v>
       </c>
       <c r="OC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD44" t="n">
         <v>6</v>
       </c>
     </row>
@@ -54227,10 +54093,10 @@
         <v>0</v>
       </c>
       <c r="IK45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM45" t="n">
         <v>0</v>
@@ -54278,10 +54144,10 @@
         <v>0</v>
       </c>
       <c r="JB45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD45" t="n">
         <v>0</v>
@@ -54302,10 +54168,10 @@
         <v>0</v>
       </c>
       <c r="JJ45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL45" t="n">
         <v>0</v>
@@ -54575,10 +54441,10 @@
         <v>0</v>
       </c>
       <c r="MW45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MX45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY45" t="n">
         <v>0</v>
@@ -54668,12 +54534,9 @@
         <v>0</v>
       </c>
       <c r="OB45" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="OC45" t="n">
-        <v>7</v>
-      </c>
-      <c r="OD45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55307,7 +55170,7 @@
         <v>0</v>
       </c>
       <c r="HA46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB46" t="n">
         <v>0</v>
@@ -55316,10 +55179,10 @@
         <v>0</v>
       </c>
       <c r="HD46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF46" t="n">
         <v>0</v>
@@ -55415,10 +55278,10 @@
         <v>0</v>
       </c>
       <c r="IK46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM46" t="n">
         <v>0</v>
@@ -55466,10 +55329,10 @@
         <v>0</v>
       </c>
       <c r="JB46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD46" t="n">
         <v>0</v>
@@ -55490,10 +55353,10 @@
         <v>0</v>
       </c>
       <c r="JJ46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL46" t="n">
         <v>0</v>
@@ -55679,10 +55542,10 @@
         <v>0</v>
       </c>
       <c r="LU46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LW46" t="n">
         <v>0</v>
@@ -55820,10 +55683,10 @@
         <v>0</v>
       </c>
       <c r="NP46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NQ46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NR46" t="n">
         <v>0</v>
@@ -55856,12 +55719,9 @@
         <v>0</v>
       </c>
       <c r="OB46" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="OC46" t="n">
-        <v>13</v>
-      </c>
-      <c r="OD46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56675,10 +56535,10 @@
         <v>0</v>
       </c>
       <c r="JI47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK47" t="n">
         <v>0</v>
@@ -56852,10 +56712,10 @@
         <v>0</v>
       </c>
       <c r="LP47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LQ47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LR47" t="n">
         <v>0</v>
@@ -57047,9 +56907,6 @@
         <v>0</v>
       </c>
       <c r="OC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD47" t="n">
         <v>2</v>
       </c>
     </row>
@@ -57875,10 +57732,10 @@
         <v>0</v>
       </c>
       <c r="JM48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO48" t="n">
         <v>0</v>
@@ -57893,10 +57750,10 @@
         <v>0</v>
       </c>
       <c r="JS48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU48" t="n">
         <v>0</v>
@@ -58118,10 +57975,10 @@
         <v>0</v>
       </c>
       <c r="MP48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR48" t="n">
         <v>0</v>
@@ -58157,10 +58014,10 @@
         <v>0</v>
       </c>
       <c r="NC48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE48" t="n">
         <v>0</v>
@@ -58232,12 +58089,9 @@
         <v>0</v>
       </c>
       <c r="OB48" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="OC48" t="n">
-        <v>12</v>
-      </c>
-      <c r="OD48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -59054,10 +58908,10 @@
         <v>0</v>
       </c>
       <c r="JJ49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL49" t="n">
         <v>0</v>
@@ -59420,12 +59274,9 @@
         <v>0</v>
       </c>
       <c r="OB49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="OC49" t="n">
-        <v>2</v>
-      </c>
-      <c r="OD49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -60242,10 +60093,10 @@
         <v>0</v>
       </c>
       <c r="JJ50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL50" t="n">
         <v>0</v>
@@ -60284,10 +60135,10 @@
         <v>0</v>
       </c>
       <c r="JX50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ50" t="n">
         <v>0</v>
@@ -60437,10 +60288,10 @@
         <v>0</v>
       </c>
       <c r="LW50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY50" t="n">
         <v>0</v>
@@ -60608,12 +60459,9 @@
         <v>0</v>
       </c>
       <c r="OB50" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="OC50" t="n">
-        <v>8</v>
-      </c>
-      <c r="OD50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61247,22 +61095,22 @@
         <v>0</v>
       </c>
       <c r="HA51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HD51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE51" t="n">
         <v>1</v>
       </c>
       <c r="HF51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG51" t="n">
         <v>0</v>
@@ -61280,10 +61128,10 @@
         <v>0</v>
       </c>
       <c r="HL51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN51" t="n">
         <v>0</v>
@@ -61310,10 +61158,10 @@
         <v>0</v>
       </c>
       <c r="HV51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX51" t="n">
         <v>0</v>
@@ -61334,10 +61182,10 @@
         <v>0</v>
       </c>
       <c r="ID51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF51" t="n">
         <v>0</v>
@@ -61352,13 +61200,13 @@
         <v>0</v>
       </c>
       <c r="IJ51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK51" t="n">
         <v>1</v>
       </c>
       <c r="IL51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM51" t="n">
         <v>0</v>
@@ -61373,10 +61221,10 @@
         <v>0</v>
       </c>
       <c r="IQ51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS51" t="n">
         <v>0</v>
@@ -61385,7 +61233,7 @@
         <v>0</v>
       </c>
       <c r="IU51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV51" t="n">
         <v>1</v>
@@ -61394,7 +61242,7 @@
         <v>1</v>
       </c>
       <c r="IX51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IY51" t="n">
         <v>0</v>
@@ -61406,19 +61254,19 @@
         <v>0</v>
       </c>
       <c r="JB51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC51" t="n">
         <v>1</v>
       </c>
       <c r="JD51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JE51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JF51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JG51" t="n">
         <v>0</v>
@@ -61430,19 +61278,19 @@
         <v>0</v>
       </c>
       <c r="JJ51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL51" t="n">
         <v>0</v>
       </c>
       <c r="JM51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO51" t="n">
         <v>0</v>
@@ -61457,19 +61305,19 @@
         <v>0</v>
       </c>
       <c r="JS51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX51" t="n">
         <v>1</v>
@@ -61478,7 +61326,7 @@
         <v>1</v>
       </c>
       <c r="JZ51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KA51" t="n">
         <v>0</v>
@@ -61526,19 +61374,19 @@
         <v>0</v>
       </c>
       <c r="KP51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KQ51" t="n">
         <v>1</v>
       </c>
       <c r="KR51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KS51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU51" t="n">
         <v>0</v>
@@ -61565,10 +61413,10 @@
         <v>0</v>
       </c>
       <c r="LC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LD51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LE51" t="n">
         <v>0</v>
@@ -61577,16 +61425,16 @@
         <v>0</v>
       </c>
       <c r="LG51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LH51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LI51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK51" t="n">
         <v>0</v>
@@ -61604,10 +61452,10 @@
         <v>0</v>
       </c>
       <c r="LP51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LQ51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LR51" t="n">
         <v>0</v>
@@ -61619,16 +61467,16 @@
         <v>0</v>
       </c>
       <c r="LU51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LW51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY51" t="n">
         <v>0</v>
@@ -61658,16 +61506,16 @@
         <v>0</v>
       </c>
       <c r="MH51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MI51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MJ51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MK51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ML51" t="n">
         <v>0</v>
@@ -61682,10 +61530,10 @@
         <v>0</v>
       </c>
       <c r="MP51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR51" t="n">
         <v>0</v>
@@ -61697,22 +61545,22 @@
         <v>0</v>
       </c>
       <c r="MU51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MV51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MW51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MX51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MZ51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NA51" t="n">
         <v>0</v>
@@ -61721,10 +61569,10 @@
         <v>0</v>
       </c>
       <c r="NC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE51" t="n">
         <v>0</v>
@@ -61760,10 +61608,10 @@
         <v>0</v>
       </c>
       <c r="NP51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NQ51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NR51" t="n">
         <v>0</v>
@@ -61772,22 +61620,22 @@
         <v>0</v>
       </c>
       <c r="NT51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NU51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NV51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NY51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NZ51" t="n">
         <v>0</v>
@@ -61796,12 +61644,9 @@
         <v>0</v>
       </c>
       <c r="OB51" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="OC51" t="n">
-        <v>92</v>
-      </c>
-      <c r="OD51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62435,7 +62280,7 @@
         <v>0</v>
       </c>
       <c r="HA52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB52" t="n">
         <v>0</v>
@@ -62618,10 +62463,10 @@
         <v>0</v>
       </c>
       <c r="JJ52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL52" t="n">
         <v>0</v>
@@ -62660,13 +62505,13 @@
         <v>0</v>
       </c>
       <c r="JX52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY52" t="n">
         <v>1</v>
       </c>
       <c r="JZ52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KA52" t="n">
         <v>0</v>
@@ -62987,10 +62832,7 @@
         <v>0</v>
       </c>
       <c r="OC52" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -63833,10 +63675,10 @@
         <v>0</v>
       </c>
       <c r="JS53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU53" t="n">
         <v>0</v>
@@ -63911,10 +63753,10 @@
         <v>0</v>
       </c>
       <c r="KS53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU53" t="n">
         <v>0</v>
@@ -63941,10 +63783,10 @@
         <v>0</v>
       </c>
       <c r="LC53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LD53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LE53" t="n">
         <v>0</v>
@@ -64097,10 +63939,10 @@
         <v>0</v>
       </c>
       <c r="NC53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE53" t="n">
         <v>0</v>
@@ -64175,9 +64017,6 @@
         <v>0</v>
       </c>
       <c r="OC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD53" t="n">
         <v>5</v>
       </c>
     </row>

--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -11874,7 +11874,7 @@
         <v>0</v>
       </c>
       <c r="OB9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="OC9" t="n">
         <v>5</v>
@@ -15432,7 +15432,7 @@
         <v>0</v>
       </c>
       <c r="OC12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">

--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -2046,7 +2046,7 @@
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>soot</t>
+          <t>graal</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="LK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LL3" t="n">
         <v>0</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="OB3" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="OC3" t="n">
         <v>0</v>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="LK6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LL6" t="n">
         <v>0</v>
@@ -8319,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="OB6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OC6" t="n">
         <v>0</v>
@@ -19962,7 +19962,7 @@
         <v>0</v>
       </c>
       <c r="LK16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LL16" t="n">
         <v>0</v>
@@ -20172,7 +20172,7 @@
         <v>0</v>
       </c>
       <c r="OC16" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -24702,7 +24702,7 @@
         <v>0</v>
       </c>
       <c r="LK20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LL20" t="n">
         <v>0</v>
@@ -24909,7 +24909,7 @@
         <v>0</v>
       </c>
       <c r="OB20" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="OC20" t="n">
         <v>0</v>
@@ -29442,7 +29442,7 @@
         <v>0</v>
       </c>
       <c r="LK24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LL24" t="n">
         <v>0</v>
@@ -29649,7 +29649,7 @@
         <v>0</v>
       </c>
       <c r="OB24" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="OC24" t="n">
         <v>0</v>
@@ -42477,7 +42477,7 @@
         <v>0</v>
       </c>
       <c r="LK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LL35" t="n">
         <v>0</v>
@@ -42687,7 +42687,7 @@
         <v>0</v>
       </c>
       <c r="OC35" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">

--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -971,1422 +971,1422 @@
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>android</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
           <t>geoserver</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>geotools</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>gephi</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>openhtmltopdf</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>ghidra</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>spotless</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>docker-java</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>dozer</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>moco</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>metadata-extractor</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>gitlab-plugin</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>metrics</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>gobblin</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>eclipse-collections</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>gocd</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>google-api-java-client</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>vert.x</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>google-cloud-java</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>elasticsearch-hadoop</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>google-http-java-client</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>embulk</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>WorldEdit</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>eclim</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>Etar-Calendar</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>graphql-java</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>graylog2-server</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>fresco</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>litho</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>jackson-core</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>groovy</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>Omni-Notes</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>grpc-java</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>gson</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>guice</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>hadoop</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>flutter-intellij</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>flyingsaucer</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>hapi-fhir</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>pslab-android</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>hawtio</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>heritrix3</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>HikariCP</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>hive</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>hudi</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>Geyser</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>git-commit-id-maven-plugin</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>iceberg</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>immutables</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>auto</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>truth</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>copybara</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>error-prone</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>j2objc</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>guava</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>closure-compiler</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>intellij-plugins</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>iotdb</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>jabref</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>jsprit</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>graphhopper</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>jackson-databind</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>janusgraph</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>java-design-patterns</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>markor</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>javamelody</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>jbpm</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>jdbi</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>TwelveMonkeys</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>pitest</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>Digital</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>jib</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>jitsi</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>i2p.i2p</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>Apktool</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>Smack</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>jmeter</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>jodd</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>jooby</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>JSqlParser</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>kairosdb</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>itextpdf</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>keycloak</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>jacoco</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>mapdb</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>killbill</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>json-schema-validator</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>jna</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>ksql</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>javaparser</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>pushy</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>kubernetes-client</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>kubernetes-plugin</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>blueocean-plugin</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>jenkins</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>languagetool</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>jsoup</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>jpexs-decompiler</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>zotfile</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>jmonkeyengine</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>joda-time</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>jsonschema2pojo</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>light-4j</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>zxing-android-embedded</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>liquibase</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>logback</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>logging-log4j2</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>junit4</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>junit5</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>phpinspectionsea</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>grobid</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>mage</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>manifold</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>materialistic</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>XChart</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>XChange</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>unirest-java</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>teavm</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>android-gif-drawable</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>java</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>maxwell</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>Lawnchair</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>micrometer</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>micronaut-core</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>myexcel</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>libgdx</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>OpenPDF</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>modeldb</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>mongo-java-driver</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>rest.li</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>moquette</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>morphia</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>nacos</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>lwjgl3</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>NetGuard</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>lanterna</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>neo4j-apoc-procedures</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>netbeans</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>mapstruct</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>netty</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>material-components-android</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>gpslogger</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>ngrinder</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>nifi</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>MinecraftForge</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>mockserver</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>mockito</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>nomulus</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>nutz</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>onedev</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>Terasology</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>lombok-intellij-plugin</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>msgpack-java</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>openapi-generator</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>Openfire</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>OpenID-Connect-Java-Spring-Server</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>KISS</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>OpenRefine</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>eureka</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>OsmAnd</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>osmdroid</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>pac4j</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>pentaho-kettle</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>open-keychain</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>Chronicle-Map</t>
         </is>
       </c>
-      <c r="JM1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>presto</t>
         </is>
       </c>
-      <c r="JN1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>primefaces</t>
         </is>
       </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>processing</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>OpenTripPlanner</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>openvidu</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>psi-probe</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>pulsar</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>opengrok</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>quarkus</t>
         </is>
       </c>
-      <c r="JV1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>oshi</t>
         </is>
       </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>quarkus-quickstarts</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
+      <c r="JW1" s="1" t="inlineStr">
         <is>
           <t>querydsl</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
         <is>
           <t>questdb</t>
         </is>
       </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="JY1" s="1" t="inlineStr">
         <is>
           <t>ratpack</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
         <is>
           <t>redisson</t>
         </is>
       </c>
-      <c r="KB1" s="1" t="inlineStr">
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>keepass2android</t>
         </is>
       </c>
-      <c r="KC1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
         <is>
           <t>MPAndroidChart</t>
         </is>
       </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KC1" s="1" t="inlineStr">
         <is>
           <t>secor</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
+      <c r="KD1" s="1" t="inlineStr">
         <is>
           <t>docx4j</t>
         </is>
       </c>
-      <c r="KF1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>pmd</t>
         </is>
       </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>pravega</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
         <is>
           <t>ripme</t>
         </is>
       </c>
-      <c r="KI1" s="1" t="inlineStr">
+      <c r="KH1" s="1" t="inlineStr">
         <is>
           <t>rstudio</t>
         </is>
       </c>
-      <c r="KJ1" s="1" t="inlineStr">
+      <c r="KI1" s="1" t="inlineStr">
         <is>
           <t>Saturn</t>
         </is>
       </c>
-      <c r="KK1" s="1" t="inlineStr">
+      <c r="KJ1" s="1" t="inlineStr">
         <is>
           <t>scouter</t>
         </is>
       </c>
-      <c r="KL1" s="1" t="inlineStr">
+      <c r="KK1" s="1" t="inlineStr">
         <is>
           <t>selenium</t>
         </is>
       </c>
-      <c r="KM1" s="1" t="inlineStr">
+      <c r="KL1" s="1" t="inlineStr">
         <is>
           <t>slf4j</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
+      <c r="KM1" s="1" t="inlineStr">
         <is>
           <t>serve</t>
         </is>
       </c>
-      <c r="KO1" s="1" t="inlineStr">
+      <c r="KN1" s="1" t="inlineStr">
         <is>
           <t>RedReader</t>
         </is>
       </c>
-      <c r="KP1" s="1" t="inlineStr">
+      <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>servicecomb-java-chassis</t>
         </is>
       </c>
-      <c r="KQ1" s="1" t="inlineStr">
+      <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>servicecomb-pack</t>
         </is>
       </c>
-      <c r="KR1" s="1" t="inlineStr">
+      <c r="KQ1" s="1" t="inlineStr">
         <is>
           <t>shardingsphere-elasticjob</t>
         </is>
       </c>
-      <c r="KS1" s="1" t="inlineStr">
+      <c r="KR1" s="1" t="inlineStr">
         <is>
           <t>ShedLock</t>
         </is>
       </c>
-      <c r="KT1" s="1" t="inlineStr">
+      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>shiro</t>
         </is>
       </c>
-      <c r="KU1" s="1" t="inlineStr">
+      <c r="KT1" s="1" t="inlineStr">
         <is>
           <t>siddhi</t>
         </is>
       </c>
-      <c r="KV1" s="1" t="inlineStr">
+      <c r="KU1" s="1" t="inlineStr">
         <is>
           <t>RxJava</t>
         </is>
       </c>
-      <c r="KW1" s="1" t="inlineStr">
+      <c r="KV1" s="1" t="inlineStr">
         <is>
           <t>reactor-core</t>
         </is>
       </c>
-      <c r="KX1" s="1" t="inlineStr">
+      <c r="KW1" s="1" t="inlineStr">
         <is>
           <t>reactor-netty</t>
         </is>
       </c>
-      <c r="KY1" s="1" t="inlineStr">
+      <c r="KX1" s="1" t="inlineStr">
         <is>
           <t>agrona</t>
         </is>
       </c>
-      <c r="KZ1" s="1" t="inlineStr">
+      <c r="KY1" s="1" t="inlineStr">
         <is>
           <t>simple-binary-encoding</t>
         </is>
       </c>
-      <c r="LA1" s="1" t="inlineStr">
+      <c r="KZ1" s="1" t="inlineStr">
         <is>
           <t>aeron</t>
         </is>
       </c>
-      <c r="LB1" s="1" t="inlineStr">
+      <c r="LA1" s="1" t="inlineStr">
         <is>
           <t>Signal-Android</t>
         </is>
       </c>
-      <c r="LC1" s="1" t="inlineStr">
+      <c r="LB1" s="1" t="inlineStr">
         <is>
           <t>skywalking</t>
         </is>
       </c>
-      <c r="LD1" s="1" t="inlineStr">
-        <is>
-          <t>pushy</t>
-        </is>
-      </c>
-      <c r="LE1" s="1" t="inlineStr">
+      <c r="LC1" s="1" t="inlineStr">
         <is>
           <t>picocli</t>
         </is>
       </c>
-      <c r="LF1" s="1" t="inlineStr">
+      <c r="LD1" s="1" t="inlineStr">
         <is>
           <t>rest-assured</t>
         </is>
       </c>
-      <c r="LG1" s="1" t="inlineStr">
+      <c r="LE1" s="1" t="inlineStr">
         <is>
           <t>smile</t>
         </is>
       </c>
-      <c r="LH1" s="1" t="inlineStr">
+      <c r="LF1" s="1" t="inlineStr">
         <is>
           <t>robolectric</t>
         </is>
       </c>
-      <c r="LI1" s="1" t="inlineStr">
+      <c r="LG1" s="1" t="inlineStr">
         <is>
           <t>sonarqube</t>
         </is>
       </c>
-      <c r="LJ1" s="1" t="inlineStr">
+      <c r="LH1" s="1" t="inlineStr">
         <is>
           <t>runelite</t>
         </is>
       </c>
-      <c r="LK1" s="1" t="inlineStr">
+      <c r="LI1" s="1" t="inlineStr">
         <is>
           <t>graal</t>
         </is>
       </c>
-      <c r="LL1" s="1" t="inlineStr">
+      <c r="LJ1" s="1" t="inlineStr">
         <is>
           <t>mp4parser</t>
         </is>
       </c>
-      <c r="LM1" s="1" t="inlineStr">
+      <c r="LK1" s="1" t="inlineStr">
         <is>
           <t>scribejava</t>
         </is>
       </c>
-      <c r="LN1" s="1" t="inlineStr">
+      <c r="LL1" s="1" t="inlineStr">
         <is>
           <t>selenide</t>
         </is>
       </c>
-      <c r="LO1" s="1" t="inlineStr">
+      <c r="LM1" s="1" t="inlineStr">
         <is>
           <t>spock</t>
         </is>
       </c>
-      <c r="LP1" s="1" t="inlineStr">
+      <c r="LN1" s="1" t="inlineStr">
         <is>
           <t>spoon</t>
         </is>
       </c>
-      <c r="LQ1" s="1" t="inlineStr">
+      <c r="LO1" s="1" t="inlineStr">
         <is>
           <t>android-maven-plugin</t>
         </is>
       </c>
-      <c r="LR1" s="1" t="inlineStr">
+      <c r="LP1" s="1" t="inlineStr">
         <is>
           <t>jadx</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
+      <c r="LQ1" s="1" t="inlineStr">
         <is>
           <t>gh4a</t>
         </is>
       </c>
-      <c r="LT1" s="1" t="inlineStr">
+      <c r="LR1" s="1" t="inlineStr">
         <is>
           <t>spotbugs</t>
         </is>
       </c>
-      <c r="LU1" s="1" t="inlineStr">
+      <c r="LS1" s="1" t="inlineStr">
         <is>
           <t>spring-batch</t>
         </is>
       </c>
-      <c r="LV1" s="1" t="inlineStr">
+      <c r="LT1" s="1" t="inlineStr">
         <is>
           <t>soot</t>
         </is>
       </c>
-      <c r="LW1" s="1" t="inlineStr">
+      <c r="LU1" s="1" t="inlineStr">
         <is>
           <t>spring-boot</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
+      <c r="LV1" s="1" t="inlineStr">
         <is>
           <t>BungeeCord</t>
         </is>
       </c>
-      <c r="LY1" s="1" t="inlineStr">
+      <c r="LW1" s="1" t="inlineStr">
         <is>
           <t>spring-boot-admin</t>
         </is>
       </c>
-      <c r="LZ1" s="1" t="inlineStr">
+      <c r="LX1" s="1" t="inlineStr">
         <is>
           <t>SpongeAPI</t>
         </is>
       </c>
-      <c r="MA1" s="1" t="inlineStr">
+      <c r="LY1" s="1" t="inlineStr">
         <is>
           <t>spring-cloud-alibaba</t>
         </is>
       </c>
-      <c r="MB1" s="1" t="inlineStr">
+      <c r="LZ1" s="1" t="inlineStr">
         <is>
           <t>spring-cloud-config</t>
         </is>
       </c>
-      <c r="MC1" s="1" t="inlineStr">
+      <c r="MA1" s="1" t="inlineStr">
         <is>
           <t>spring-cloud-gateway</t>
         </is>
       </c>
-      <c r="MD1" s="1" t="inlineStr">
+      <c r="MB1" s="1" t="inlineStr">
         <is>
           <t>spring-cloud-sleuth</t>
         </is>
       </c>
-      <c r="ME1" s="1" t="inlineStr">
+      <c r="MC1" s="1" t="inlineStr">
         <is>
           <t>spring-cloud-netflix</t>
         </is>
       </c>
-      <c r="MF1" s="1" t="inlineStr">
+      <c r="MD1" s="1" t="inlineStr">
         <is>
           <t>initializr</t>
         </is>
       </c>
-      <c r="MG1" s="1" t="inlineStr">
+      <c r="ME1" s="1" t="inlineStr">
         <is>
           <t>spring-data-redis</t>
         </is>
       </c>
-      <c r="MH1" s="1" t="inlineStr">
+      <c r="MF1" s="1" t="inlineStr">
         <is>
           <t>spring-integration</t>
         </is>
       </c>
-      <c r="MI1" s="1" t="inlineStr">
+      <c r="MG1" s="1" t="inlineStr">
         <is>
           <t>spring-kafka</t>
         </is>
       </c>
-      <c r="MJ1" s="1" t="inlineStr">
+      <c r="MH1" s="1" t="inlineStr">
         <is>
           <t>spring-security</t>
         </is>
       </c>
-      <c r="MK1" s="1" t="inlineStr">
+      <c r="MI1" s="1" t="inlineStr">
         <is>
           <t>springdoc-openapi</t>
         </is>
       </c>
-      <c r="ML1" s="1" t="inlineStr">
+      <c r="MJ1" s="1" t="inlineStr">
         <is>
           <t>storm</t>
         </is>
       </c>
-      <c r="MM1" s="1" t="inlineStr">
+      <c r="MK1" s="1" t="inlineStr">
         <is>
           <t>strimzi-kafka-operator</t>
         </is>
       </c>
-      <c r="MN1" s="1" t="inlineStr">
+      <c r="ML1" s="1" t="inlineStr">
         <is>
           <t>tablesaw</t>
         </is>
       </c>
-      <c r="MO1" s="1" t="inlineStr">
+      <c r="MM1" s="1" t="inlineStr">
         <is>
           <t>teammates</t>
         </is>
       </c>
-      <c r="MP1" s="1" t="inlineStr">
+      <c r="MN1" s="1" t="inlineStr">
         <is>
           <t>testcontainers-java</t>
         </is>
       </c>
-      <c r="MQ1" s="1" t="inlineStr">
+      <c r="MO1" s="1" t="inlineStr">
         <is>
           <t>swagger-core</t>
         </is>
       </c>
-      <c r="MR1" s="1" t="inlineStr">
+      <c r="MP1" s="1" t="inlineStr">
         <is>
           <t>syncthing-android</t>
         </is>
       </c>
-      <c r="MS1" s="1" t="inlineStr">
+      <c r="MQ1" s="1" t="inlineStr">
         <is>
           <t>synthea</t>
         </is>
       </c>
-      <c r="MT1" s="1" t="inlineStr">
+      <c r="MR1" s="1" t="inlineStr">
         <is>
           <t>AmazeFileManager</t>
         </is>
       </c>
-      <c r="MU1" s="1" t="inlineStr">
+      <c r="MS1" s="1" t="inlineStr">
         <is>
           <t>thingsboard</t>
         </is>
       </c>
-      <c r="MV1" s="1" t="inlineStr">
+      <c r="MT1" s="1" t="inlineStr">
         <is>
           <t>NewPipe</t>
         </is>
       </c>
-      <c r="MW1" s="1" t="inlineStr">
+      <c r="MU1" s="1" t="inlineStr">
         <is>
           <t>tika</t>
         </is>
       </c>
-      <c r="MX1" s="1" t="inlineStr">
+      <c r="MV1" s="1" t="inlineStr">
         <is>
           <t>tinkerpop</t>
         </is>
       </c>
-      <c r="MY1" s="1" t="inlineStr">
+      <c r="MW1" s="1" t="inlineStr">
         <is>
           <t>tomcat</t>
         </is>
       </c>
-      <c r="MZ1" s="1" t="inlineStr">
+      <c r="MX1" s="1" t="inlineStr">
         <is>
           <t>traccar</t>
         </is>
       </c>
-      <c r="NA1" s="1" t="inlineStr">
+      <c r="MY1" s="1" t="inlineStr">
         <is>
           <t>tlaplus</t>
         </is>
       </c>
-      <c r="NB1" s="1" t="inlineStr">
+      <c r="MZ1" s="1" t="inlineStr">
         <is>
           <t>ArchUnit</t>
         </is>
       </c>
-      <c r="NC1" s="1" t="inlineStr">
+      <c r="NA1" s="1" t="inlineStr">
         <is>
           <t>trino</t>
         </is>
       </c>
-      <c r="ND1" s="1" t="inlineStr">
+      <c r="NB1" s="1" t="inlineStr">
         <is>
           <t>undertow</t>
         </is>
       </c>
-      <c r="NE1" s="1" t="inlineStr">
+      <c r="NC1" s="1" t="inlineStr">
         <is>
           <t>java-tron</t>
         </is>
       </c>
-      <c r="NF1" s="1" t="inlineStr">
+      <c r="ND1" s="1" t="inlineStr">
         <is>
           <t>Twitter4J</t>
         </is>
       </c>
-      <c r="NG1" s="1" t="inlineStr">
+      <c r="NE1" s="1" t="inlineStr">
         <is>
           <t>afwall</t>
         </is>
       </c>
-      <c r="NH1" s="1" t="inlineStr">
+      <c r="NF1" s="1" t="inlineStr">
         <is>
           <t>fitnesse</t>
         </is>
       </c>
-      <c r="NI1" s="1" t="inlineStr">
+      <c r="NG1" s="1" t="inlineStr">
         <is>
           <t>UniversalMediaServer</t>
         </is>
       </c>
-      <c r="NJ1" s="1" t="inlineStr">
+      <c r="NH1" s="1" t="inlineStr">
         <is>
           <t>validator</t>
         </is>
       </c>
-      <c r="NK1" s="1" t="inlineStr">
+      <c r="NI1" s="1" t="inlineStr">
         <is>
           <t>vespa</t>
         </is>
       </c>
-      <c r="NL1" s="1" t="inlineStr">
+      <c r="NJ1" s="1" t="inlineStr">
         <is>
           <t>visualvm</t>
         </is>
       </c>
-      <c r="NM1" s="1" t="inlineStr">
+      <c r="NK1" s="1" t="inlineStr">
         <is>
           <t>vavr</t>
         </is>
       </c>
-      <c r="NN1" s="1" t="inlineStr">
+      <c r="NL1" s="1" t="inlineStr">
         <is>
           <t>fastutil</t>
         </is>
       </c>
-      <c r="NO1" s="1" t="inlineStr">
+      <c r="NM1" s="1" t="inlineStr">
         <is>
           <t>webmagic</t>
         </is>
       </c>
-      <c r="NP1" s="1" t="inlineStr">
+      <c r="NN1" s="1" t="inlineStr">
         <is>
           <t>wildfly</t>
         </is>
       </c>
-      <c r="NQ1" s="1" t="inlineStr">
+      <c r="NO1" s="1" t="inlineStr">
         <is>
           <t>flexmark-java</t>
         </is>
       </c>
-      <c r="NR1" s="1" t="inlineStr">
+      <c r="NP1" s="1" t="inlineStr">
         <is>
           <t>epubcheck</t>
         </is>
       </c>
-      <c r="NS1" s="1" t="inlineStr">
+      <c r="NQ1" s="1" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="NR1" s="1" t="inlineStr">
         <is>
           <t>xxl-job</t>
         </is>
       </c>
-      <c r="NT1" s="1" t="inlineStr">
+      <c r="NS1" s="1" t="inlineStr">
         <is>
           <t>yacy_search_server</t>
         </is>
       </c>
-      <c r="NU1" s="1" t="inlineStr">
+      <c r="NT1" s="1" t="inlineStr">
         <is>
           <t>Universal-G-Code-Sender</t>
         </is>
       </c>
-      <c r="NV1" s="1" t="inlineStr">
+      <c r="NU1" s="1" t="inlineStr">
         <is>
           <t>YCSB</t>
         </is>
       </c>
-      <c r="NW1" s="1" t="inlineStr">
+      <c r="NV1" s="1" t="inlineStr">
         <is>
           <t>zaproxy</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
+      <c r="NW1" s="1" t="inlineStr">
         <is>
           <t>zeppelin</t>
         </is>
       </c>
-      <c r="NY1" s="1" t="inlineStr">
+      <c r="NX1" s="1" t="inlineStr">
         <is>
           <t>zipkin</t>
         </is>
       </c>
-      <c r="NZ1" s="1" t="inlineStr">
+      <c r="NY1" s="1" t="inlineStr">
         <is>
           <t>jeromq</t>
         </is>
       </c>
+      <c r="NZ1" s="1" t="inlineStr">
+        <is>
+          <t>zxing</t>
+        </is>
+      </c>
       <c r="OA1" s="1" t="inlineStr">
         <is>
-          <t>zxing</t>
+          <t>RoaringBitmap</t>
         </is>
       </c>
       <c r="OB1" s="1" t="inlineStr">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE3" t="n">
         <v>1</v>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="DG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS3" t="n">
         <v>1</v>
       </c>
       <c r="DT3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
@@ -3969,10 +3969,10 @@
         <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
@@ -3999,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
@@ -4014,19 +4014,19 @@
         <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN3" t="n">
         <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET3" t="n">
         <v>1</v>
@@ -4044,16 +4044,16 @@
         <v>1</v>
       </c>
       <c r="EV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
         <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
@@ -4077,16 +4077,16 @@
         <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ3" t="n">
         <v>1</v>
@@ -4113,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="FS3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT3" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="GA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB3" t="n">
         <v>1</v>
@@ -4146,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="GD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE3" t="n">
         <v>0</v>
@@ -4155,19 +4155,19 @@
         <v>0</v>
       </c>
       <c r="GG3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GI3" t="n">
         <v>0</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GL3" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="GT3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GV3" t="n">
         <v>0</v>
@@ -4215,19 +4215,19 @@
         <v>0</v>
       </c>
       <c r="HA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD3" t="n">
         <v>1</v>
       </c>
       <c r="HE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF3" t="n">
         <v>0</v>
@@ -4245,10 +4245,10 @@
         <v>0</v>
       </c>
       <c r="HK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HM3" t="n">
         <v>0</v>
@@ -4269,19 +4269,19 @@
         <v>0</v>
       </c>
       <c r="HS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HU3" t="n">
         <v>0</v>
       </c>
       <c r="HV3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX3" t="n">
         <v>0</v>
@@ -4290,10 +4290,10 @@
         <v>0</v>
       </c>
       <c r="HZ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB3" t="n">
         <v>0</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="IE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG3" t="n">
         <v>0</v>
@@ -4317,13 +4317,13 @@
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ3" t="n">
         <v>1</v>
       </c>
       <c r="IK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL3" t="n">
         <v>0</v>
@@ -4335,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="IO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP3" t="n">
         <v>1</v>
       </c>
       <c r="IQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR3" t="n">
         <v>0</v>
@@ -4353,13 +4353,13 @@
         <v>0</v>
       </c>
       <c r="IU3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV3" t="n">
         <v>1</v>
       </c>
       <c r="IW3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX3" t="n">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="IZ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA3" t="n">
         <v>1</v>
@@ -4377,13 +4377,13 @@
         <v>1</v>
       </c>
       <c r="JC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF3" t="n">
         <v>0</v>
@@ -4395,19 +4395,19 @@
         <v>0</v>
       </c>
       <c r="JI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK3" t="n">
         <v>0</v>
       </c>
       <c r="JL3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JN3" t="n">
         <v>0</v>
@@ -4422,31 +4422,31 @@
         <v>0</v>
       </c>
       <c r="JR3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV3" t="n">
         <v>0</v>
       </c>
       <c r="JW3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KA3" t="n">
         <v>0</v>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="KI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ3" t="n">
         <v>1</v>
@@ -4482,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="KL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM3" t="n">
         <v>0</v>
@@ -4494,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="KP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KQ3" t="n">
         <v>1</v>
@@ -4503,13 +4503,13 @@
         <v>1</v>
       </c>
       <c r="KS3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KV3" t="n">
         <v>0</v>
@@ -4530,34 +4530,34 @@
         <v>0</v>
       </c>
       <c r="LB3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LD3" t="n">
         <v>0</v>
       </c>
       <c r="LE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LF3" t="n">
         <v>0</v>
       </c>
       <c r="LG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LH3" t="n">
         <v>0</v>
       </c>
       <c r="LI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ3" t="n">
         <v>0</v>
       </c>
       <c r="LK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LL3" t="n">
         <v>0</v>
@@ -4578,13 +4578,13 @@
         <v>0</v>
       </c>
       <c r="LR3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LT3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LU3" t="n">
         <v>1</v>
@@ -4593,19 +4593,19 @@
         <v>0</v>
       </c>
       <c r="LW3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX3" t="n">
         <v>0</v>
       </c>
       <c r="LY3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LZ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MB3" t="n">
         <v>1</v>
@@ -4614,43 +4614,43 @@
         <v>0</v>
       </c>
       <c r="MD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ME3" t="n">
         <v>0</v>
       </c>
       <c r="MF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MG3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ML3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MN3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO3" t="n">
         <v>0</v>
       </c>
       <c r="MP3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ3" t="n">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="MU3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MV3" t="n">
         <v>0</v>
@@ -4674,22 +4674,22 @@
         <v>1</v>
       </c>
       <c r="MX3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MY3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NB3" t="n">
         <v>0</v>
       </c>
       <c r="NC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ND3" t="n">
         <v>0</v>
@@ -4722,28 +4722,28 @@
         <v>0</v>
       </c>
       <c r="NN3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NO3" t="n">
         <v>0</v>
       </c>
       <c r="NP3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NQ3" t="n">
         <v>0</v>
       </c>
       <c r="NR3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NS3" t="n">
         <v>1</v>
       </c>
       <c r="NT3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NU3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV3" t="n">
         <v>1</v>
@@ -4755,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="NY3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NZ3" t="n">
         <v>0</v>
@@ -5097,13 +5097,13 @@
         <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE4" t="n">
         <v>1</v>
       </c>
       <c r="DF4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
@@ -5184,10 +5184,10 @@
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
         <v>0</v>
@@ -5196,10 +5196,10 @@
         <v>0</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM4" t="n">
         <v>0</v>
@@ -5208,10 +5208,10 @@
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ4" t="n">
         <v>0</v>
@@ -5223,10 +5223,10 @@
         <v>0</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV4" t="n">
         <v>0</v>
@@ -5295,10 +5295,10 @@
         <v>0</v>
       </c>
       <c r="FR4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT4" t="n">
         <v>0</v>
@@ -5310,10 +5310,10 @@
         <v>0</v>
       </c>
       <c r="FW4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>0</v>
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="GA4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB4" t="n">
         <v>1</v>
@@ -5331,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="GD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE4" t="n">
         <v>0</v>
@@ -5379,10 +5379,10 @@
         <v>0</v>
       </c>
       <c r="GT4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GU4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GV4" t="n">
         <v>0</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="HC4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD4" t="n">
         <v>1</v>
@@ -5415,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="HF4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG4" t="n">
         <v>0</v>
@@ -5460,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="HU4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW4" t="n">
         <v>0</v>
@@ -5505,10 +5505,10 @@
         <v>0</v>
       </c>
       <c r="IJ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL4" t="n">
         <v>0</v>
@@ -5541,10 +5541,10 @@
         <v>0</v>
       </c>
       <c r="IV4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX4" t="n">
         <v>0</v>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="IZ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA4" t="n">
         <v>1</v>
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="JC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD4" t="n">
         <v>0</v>
@@ -5580,10 +5580,10 @@
         <v>0</v>
       </c>
       <c r="JI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK4" t="n">
         <v>0</v>
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="JW4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY4" t="n">
         <v>0</v>
@@ -5661,13 +5661,13 @@
         <v>0</v>
       </c>
       <c r="KJ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK4" t="n">
         <v>1</v>
       </c>
       <c r="KL4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM4" t="n">
         <v>0</v>
@@ -5679,19 +5679,19 @@
         <v>0</v>
       </c>
       <c r="KP4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KQ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS4" t="n">
         <v>1</v>
       </c>
       <c r="KT4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU4" t="n">
         <v>0</v>
@@ -5763,13 +5763,13 @@
         <v>0</v>
       </c>
       <c r="LR4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LS4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LT4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LU4" t="n">
         <v>1</v>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="LY4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LZ4" t="n">
         <v>0</v>
@@ -5793,19 +5793,19 @@
         <v>0</v>
       </c>
       <c r="MB4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MC4" t="n">
         <v>0</v>
       </c>
       <c r="MD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ME4" t="n">
         <v>0</v>
       </c>
       <c r="MF4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MG4" t="n">
         <v>0</v>
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="ML4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MM4" t="n">
         <v>0</v>
@@ -5850,13 +5850,13 @@
         <v>0</v>
       </c>
       <c r="MU4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MV4" t="n">
         <v>0</v>
       </c>
       <c r="MW4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MX4" t="n">
         <v>0</v>
@@ -5907,13 +5907,13 @@
         <v>0</v>
       </c>
       <c r="NN4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NO4" t="n">
         <v>0</v>
       </c>
       <c r="NP4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NQ4" t="n">
         <v>0</v>
@@ -5928,13 +5928,13 @@
         <v>0</v>
       </c>
       <c r="NU4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV4" t="n">
         <v>1</v>
       </c>
       <c r="NW4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX4" t="n">
         <v>0</v>
@@ -6333,10 +6333,10 @@
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW5" t="n">
         <v>0</v>
@@ -6690,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="IJ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL5" t="n">
         <v>0</v>
@@ -6870,10 +6870,10 @@
         <v>0</v>
       </c>
       <c r="KR5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT5" t="n">
         <v>0</v>
@@ -6915,13 +6915,13 @@
         <v>0</v>
       </c>
       <c r="LG5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LH5" t="n">
         <v>0</v>
       </c>
       <c r="LI5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LJ5" t="n">
         <v>0</v>
@@ -6957,13 +6957,13 @@
         <v>0</v>
       </c>
       <c r="LU5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV5" t="n">
         <v>0</v>
       </c>
       <c r="LW5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX5" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="MF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MG5" t="n">
         <v>0</v>
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="MJ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MK5" t="n">
         <v>0</v>
@@ -7014,13 +7014,13 @@
         <v>0</v>
       </c>
       <c r="MN5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO5" t="n">
         <v>0</v>
       </c>
       <c r="MP5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ5" t="n">
         <v>0</v>
@@ -7113,10 +7113,10 @@
         <v>0</v>
       </c>
       <c r="NU5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NW5" t="n">
         <v>0</v>
@@ -7467,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE6" t="n">
         <v>1</v>
@@ -7476,7 +7476,7 @@
         <v>1</v>
       </c>
       <c r="DG6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -7503,10 +7503,10 @@
         <v>0</v>
       </c>
       <c r="DP6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR6" t="n">
         <v>0</v>
@@ -7569,19 +7569,19 @@
         <v>0</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN6" t="n">
         <v>0</v>
       </c>
       <c r="EO6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
@@ -7593,10 +7593,10 @@
         <v>0</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
         <v>0</v>
@@ -7665,10 +7665,10 @@
         <v>0</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT6" t="n">
         <v>0</v>
@@ -7692,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="GA6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB6" t="n">
         <v>1</v>
@@ -7701,7 +7701,7 @@
         <v>1</v>
       </c>
       <c r="GD6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE6" t="n">
         <v>0</v>
@@ -7710,10 +7710,10 @@
         <v>0</v>
       </c>
       <c r="GG6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GI6" t="n">
         <v>0</v>
@@ -7770,19 +7770,19 @@
         <v>0</v>
       </c>
       <c r="HA6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HB6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HC6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD6" t="n">
         <v>1</v>
       </c>
       <c r="HE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF6" t="n">
         <v>0</v>
@@ -7800,10 +7800,10 @@
         <v>0</v>
       </c>
       <c r="HK6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HM6" t="n">
         <v>0</v>
@@ -7845,10 +7845,10 @@
         <v>0</v>
       </c>
       <c r="HZ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB6" t="n">
         <v>0</v>
@@ -7872,13 +7872,13 @@
         <v>0</v>
       </c>
       <c r="II6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ6" t="n">
         <v>1</v>
       </c>
       <c r="IK6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL6" t="n">
         <v>0</v>
@@ -7908,13 +7908,13 @@
         <v>0</v>
       </c>
       <c r="IU6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV6" t="n">
         <v>1</v>
       </c>
       <c r="IW6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX6" t="n">
         <v>0</v>
@@ -7926,10 +7926,10 @@
         <v>0</v>
       </c>
       <c r="JA6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC6" t="n">
         <v>0</v>
@@ -7950,19 +7950,19 @@
         <v>0</v>
       </c>
       <c r="JI6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK6" t="n">
         <v>0</v>
       </c>
       <c r="JL6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JN6" t="n">
         <v>0</v>
@@ -7983,19 +7983,19 @@
         <v>0</v>
       </c>
       <c r="JT6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV6" t="n">
         <v>0</v>
       </c>
       <c r="JW6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY6" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>0</v>
       </c>
       <c r="KR6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT6" t="n">
         <v>0</v>
@@ -8085,10 +8085,10 @@
         <v>0</v>
       </c>
       <c r="LB6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LC6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LD6" t="n">
         <v>0</v>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="LG6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LH6" t="n">
         <v>0</v>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="LK6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LL6" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="LS6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LT6" t="n">
         <v>0</v>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="LW6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX6" t="n">
         <v>0</v>
@@ -8187,25 +8187,25 @@
         <v>0</v>
       </c>
       <c r="MJ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MK6" t="n">
         <v>0</v>
       </c>
       <c r="ML6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MM6" t="n">
         <v>0</v>
       </c>
       <c r="MN6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO6" t="n">
         <v>0</v>
       </c>
       <c r="MP6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ6" t="n">
         <v>0</v>
@@ -8229,22 +8229,22 @@
         <v>0</v>
       </c>
       <c r="MX6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MY6" t="n">
         <v>0</v>
       </c>
       <c r="MZ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NA6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NB6" t="n">
         <v>0</v>
       </c>
       <c r="NC6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ND6" t="n">
         <v>0</v>
@@ -8277,13 +8277,13 @@
         <v>0</v>
       </c>
       <c r="NN6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NO6" t="n">
         <v>0</v>
       </c>
       <c r="NP6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NQ6" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>0</v>
       </c>
       <c r="KR7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT7" t="n">
         <v>0</v>
@@ -9423,13 +9423,13 @@
         <v>0</v>
       </c>
       <c r="NA7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NB7" t="n">
         <v>0</v>
       </c>
       <c r="NC7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ND7" t="n">
         <v>0</v>
@@ -9483,10 +9483,10 @@
         <v>0</v>
       </c>
       <c r="NU7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NW7" t="n">
         <v>0</v>
@@ -10608,13 +10608,13 @@
         <v>0</v>
       </c>
       <c r="NA8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NB8" t="n">
         <v>0</v>
       </c>
       <c r="NC8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ND8" t="n">
         <v>0</v>
@@ -11610,10 +11610,10 @@
         <v>0</v>
       </c>
       <c r="KR9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT9" t="n">
         <v>0</v>
@@ -11793,13 +11793,13 @@
         <v>0</v>
       </c>
       <c r="NA9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NB9" t="n">
         <v>0</v>
       </c>
       <c r="NC9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ND9" t="n">
         <v>0</v>
@@ -11853,10 +11853,10 @@
         <v>0</v>
       </c>
       <c r="NU9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NW9" t="n">
         <v>0</v>
@@ -13800,10 +13800,10 @@
         <v>0</v>
       </c>
       <c r="IJ11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL11" t="n">
         <v>0</v>
@@ -14184,13 +14184,13 @@
         <v>0</v>
       </c>
       <c r="NH11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NI11" t="n">
         <v>0</v>
       </c>
       <c r="NJ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NK11" t="n">
         <v>0</v>
@@ -17439,10 +17439,10 @@
         <v>0</v>
       </c>
       <c r="JL14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JN14" t="n">
         <v>0</v>
@@ -17718,13 +17718,13 @@
         <v>0</v>
       </c>
       <c r="NA14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NB14" t="n">
         <v>0</v>
       </c>
       <c r="NC14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ND14" t="n">
         <v>0</v>
@@ -18786,13 +18786,13 @@
         <v>0</v>
       </c>
       <c r="LN15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LO15" t="n">
         <v>0</v>
       </c>
       <c r="LP15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LQ15" t="n">
         <v>0</v>
@@ -18963,10 +18963,10 @@
         <v>0</v>
       </c>
       <c r="NU15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NW15" t="n">
         <v>0</v>
@@ -19317,10 +19317,10 @@
         <v>0</v>
       </c>
       <c r="DD16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="n">
         <v>0</v>
@@ -19329,10 +19329,10 @@
         <v>0</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ16" t="n">
         <v>0</v>
@@ -19347,31 +19347,31 @@
         <v>0</v>
       </c>
       <c r="DN16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT16" t="n">
         <v>0</v>
       </c>
       <c r="DU16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW16" t="n">
         <v>0</v>
@@ -19410,10 +19410,10 @@
         <v>0</v>
       </c>
       <c r="EI16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK16" t="n">
         <v>0</v>
@@ -19428,16 +19428,16 @@
         <v>0</v>
       </c>
       <c r="EO16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES16" t="n">
         <v>0</v>
@@ -19485,10 +19485,10 @@
         <v>0</v>
       </c>
       <c r="FH16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ16" t="n">
         <v>0</v>
@@ -19542,16 +19542,16 @@
         <v>0</v>
       </c>
       <c r="GA16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE16" t="n">
         <v>0</v>
@@ -19569,10 +19569,10 @@
         <v>0</v>
       </c>
       <c r="GJ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GL16" t="n">
         <v>0</v>
@@ -19587,10 +19587,10 @@
         <v>0</v>
       </c>
       <c r="GP16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GR16" t="n">
         <v>0</v>
@@ -19599,10 +19599,10 @@
         <v>0</v>
       </c>
       <c r="GT16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GU16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GV16" t="n">
         <v>0</v>
@@ -19632,10 +19632,10 @@
         <v>0</v>
       </c>
       <c r="HE16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG16" t="n">
         <v>0</v>
@@ -19674,19 +19674,19 @@
         <v>0</v>
       </c>
       <c r="HS16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HU16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV16" t="n">
         <v>1</v>
       </c>
       <c r="HW16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX16" t="n">
         <v>0</v>
@@ -19722,10 +19722,10 @@
         <v>0</v>
       </c>
       <c r="II16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK16" t="n">
         <v>0</v>
@@ -19743,10 +19743,10 @@
         <v>0</v>
       </c>
       <c r="IP16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR16" t="n">
         <v>0</v>
@@ -19758,10 +19758,10 @@
         <v>0</v>
       </c>
       <c r="IU16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW16" t="n">
         <v>0</v>
@@ -19773,13 +19773,13 @@
         <v>0</v>
       </c>
       <c r="IZ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA16" t="n">
         <v>1</v>
       </c>
       <c r="JB16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC16" t="n">
         <v>0</v>
@@ -19800,19 +19800,19 @@
         <v>0</v>
       </c>
       <c r="JI16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK16" t="n">
         <v>0</v>
       </c>
       <c r="JL16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JN16" t="n">
         <v>0</v>
@@ -19827,34 +19827,34 @@
         <v>0</v>
       </c>
       <c r="JR16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX16" t="n">
         <v>0</v>
       </c>
       <c r="JY16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ16" t="n">
         <v>1</v>
       </c>
       <c r="KA16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KB16" t="n">
         <v>0</v>
@@ -19881,13 +19881,13 @@
         <v>0</v>
       </c>
       <c r="KJ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK16" t="n">
         <v>1</v>
       </c>
       <c r="KL16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM16" t="n">
         <v>0</v>
@@ -19899,16 +19899,16 @@
         <v>0</v>
       </c>
       <c r="KP16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KQ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT16" t="n">
         <v>0</v>
@@ -19935,10 +19935,10 @@
         <v>0</v>
       </c>
       <c r="LB16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LC16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LD16" t="n">
         <v>0</v>
@@ -19950,7 +19950,7 @@
         <v>0</v>
       </c>
       <c r="LG16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LH16" t="n">
         <v>0</v>
@@ -19962,7 +19962,7 @@
         <v>0</v>
       </c>
       <c r="LK16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LL16" t="n">
         <v>0</v>
@@ -19992,22 +19992,22 @@
         <v>0</v>
       </c>
       <c r="LU16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV16" t="n">
         <v>0</v>
       </c>
       <c r="LW16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX16" t="n">
         <v>0</v>
       </c>
       <c r="LY16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LZ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MA16" t="n">
         <v>1</v>
@@ -20016,19 +20016,19 @@
         <v>1</v>
       </c>
       <c r="MC16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MD16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ME16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MF16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MG16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MH16" t="n">
         <v>1</v>
@@ -20043,19 +20043,19 @@
         <v>0</v>
       </c>
       <c r="ML16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MM16" t="n">
         <v>0</v>
       </c>
       <c r="MN16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO16" t="n">
         <v>0</v>
       </c>
       <c r="MP16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ16" t="n">
         <v>0</v>
@@ -20064,37 +20064,37 @@
         <v>0</v>
       </c>
       <c r="MS16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MT16" t="n">
         <v>0</v>
       </c>
       <c r="MU16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MV16" t="n">
         <v>0</v>
       </c>
       <c r="MW16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MX16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MY16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MZ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NA16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NB16" t="n">
         <v>0</v>
       </c>
       <c r="NC16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ND16" t="n">
         <v>0</v>
@@ -20106,13 +20106,13 @@
         <v>0</v>
       </c>
       <c r="NG16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NH16" t="n">
         <v>0</v>
       </c>
       <c r="NI16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NJ16" t="n">
         <v>0</v>
@@ -20124,13 +20124,13 @@
         <v>0</v>
       </c>
       <c r="NM16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NN16" t="n">
         <v>0</v>
       </c>
       <c r="NO16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NP16" t="n">
         <v>0</v>
@@ -20148,16 +20148,16 @@
         <v>0</v>
       </c>
       <c r="NU16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NW16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NX16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NY16" t="n">
         <v>0</v>
@@ -21012,10 +21012,10 @@
         <v>0</v>
       </c>
       <c r="JR17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT17" t="n">
         <v>0</v>
@@ -21333,10 +21333,10 @@
         <v>0</v>
       </c>
       <c r="NU17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NW17" t="n">
         <v>0</v>
@@ -21687,13 +21687,13 @@
         <v>0</v>
       </c>
       <c r="DD18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE18" t="n">
         <v>1</v>
       </c>
       <c r="DF18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG18" t="n">
         <v>0</v>
@@ -21738,10 +21738,10 @@
         <v>0</v>
       </c>
       <c r="DU18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW18" t="n">
         <v>0</v>
@@ -21813,13 +21813,13 @@
         <v>0</v>
       </c>
       <c r="ET18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU18" t="n">
         <v>1</v>
       </c>
       <c r="EV18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW18" t="n">
         <v>0</v>
@@ -21852,10 +21852,10 @@
         <v>0</v>
       </c>
       <c r="FG18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI18" t="n">
         <v>0</v>
@@ -21924,10 +21924,10 @@
         <v>0</v>
       </c>
       <c r="GE18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG18" t="n">
         <v>0</v>
@@ -22077,10 +22077,10 @@
         <v>0</v>
       </c>
       <c r="ID18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF18" t="n">
         <v>0</v>
@@ -22095,10 +22095,10 @@
         <v>0</v>
       </c>
       <c r="IJ18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL18" t="n">
         <v>0</v>
@@ -22125,10 +22125,10 @@
         <v>0</v>
       </c>
       <c r="IT18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IV18" t="n">
         <v>0</v>
@@ -22212,19 +22212,19 @@
         <v>0</v>
       </c>
       <c r="JW18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ18" t="n">
         <v>1</v>
       </c>
       <c r="KA18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KB18" t="n">
         <v>0</v>
@@ -22275,10 +22275,10 @@
         <v>0</v>
       </c>
       <c r="KR18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT18" t="n">
         <v>0</v>
@@ -22362,13 +22362,13 @@
         <v>0</v>
       </c>
       <c r="LU18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV18" t="n">
         <v>0</v>
       </c>
       <c r="LW18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX18" t="n">
         <v>0</v>
@@ -22416,16 +22416,16 @@
         <v>0</v>
       </c>
       <c r="MM18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MN18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MP18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ18" t="n">
         <v>0</v>
@@ -22482,13 +22482,13 @@
         <v>0</v>
       </c>
       <c r="NI18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NJ18" t="n">
         <v>0</v>
       </c>
       <c r="NK18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NL18" t="n">
         <v>0</v>
@@ -22518,16 +22518,16 @@
         <v>0</v>
       </c>
       <c r="NU18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NW18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NX18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NY18" t="n">
         <v>0</v>
@@ -23097,10 +23097,10 @@
         <v>0</v>
       </c>
       <c r="GA19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC19" t="n">
         <v>0</v>
@@ -23238,10 +23238,10 @@
         <v>0</v>
       </c>
       <c r="HV19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX19" t="n">
         <v>0</v>
@@ -23277,10 +23277,10 @@
         <v>0</v>
       </c>
       <c r="II19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK19" t="n">
         <v>0</v>
@@ -23298,10 +23298,10 @@
         <v>0</v>
       </c>
       <c r="IP19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR19" t="n">
         <v>0</v>
@@ -23394,10 +23394,10 @@
         <v>0</v>
       </c>
       <c r="JV19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX19" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="KR19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT19" t="n">
         <v>0</v>
@@ -23541,7 +23541,7 @@
         <v>0</v>
       </c>
       <c r="LS19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LT19" t="n">
         <v>0</v>
@@ -23553,7 +23553,7 @@
         <v>0</v>
       </c>
       <c r="LW19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX19" t="n">
         <v>0</v>
@@ -23604,13 +23604,13 @@
         <v>0</v>
       </c>
       <c r="MN19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO19" t="n">
         <v>0</v>
       </c>
       <c r="MP19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ19" t="n">
         <v>0</v>
@@ -23628,13 +23628,13 @@
         <v>0</v>
       </c>
       <c r="MV19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MW19" t="n">
         <v>0</v>
       </c>
       <c r="MX19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY19" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="NW19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NX19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NY19" t="n">
         <v>0</v>
@@ -24057,22 +24057,22 @@
         <v>0</v>
       </c>
       <c r="DD20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE20" t="n">
         <v>1</v>
       </c>
       <c r="DF20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG20" t="n">
         <v>0</v>
       </c>
       <c r="DH20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ20" t="n">
         <v>0</v>
@@ -24099,10 +24099,10 @@
         <v>0</v>
       </c>
       <c r="DR20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT20" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="EG20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI20" t="n">
         <v>0</v>
@@ -24168,10 +24168,10 @@
         <v>0</v>
       </c>
       <c r="EO20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ20" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="ES20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET20" t="n">
         <v>1</v>
@@ -24189,7 +24189,7 @@
         <v>1</v>
       </c>
       <c r="EV20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW20" t="n">
         <v>0</v>
@@ -24228,10 +24228,10 @@
         <v>0</v>
       </c>
       <c r="FI20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK20" t="n">
         <v>0</v>
@@ -24243,13 +24243,13 @@
         <v>0</v>
       </c>
       <c r="FN20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ20" t="n">
         <v>1</v>
@@ -24258,7 +24258,7 @@
         <v>1</v>
       </c>
       <c r="FS20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT20" t="n">
         <v>0</v>
@@ -24282,13 +24282,13 @@
         <v>0</v>
       </c>
       <c r="GA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD20" t="n">
         <v>1</v>
@@ -24297,22 +24297,22 @@
         <v>1</v>
       </c>
       <c r="GF20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GI20" t="n">
         <v>0</v>
       </c>
       <c r="GJ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GL20" t="n">
         <v>0</v>
@@ -24360,22 +24360,22 @@
         <v>0</v>
       </c>
       <c r="HA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HB20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HC20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HE20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG20" t="n">
         <v>0</v>
@@ -24387,13 +24387,13 @@
         <v>0</v>
       </c>
       <c r="HJ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HK20" t="n">
         <v>1</v>
       </c>
       <c r="HL20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HM20" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="HU20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV20" t="n">
         <v>1</v>
       </c>
       <c r="HW20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX20" t="n">
         <v>0</v>
@@ -24435,19 +24435,19 @@
         <v>0</v>
       </c>
       <c r="HZ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB20" t="n">
         <v>0</v>
       </c>
       <c r="IC20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IE20" t="n">
         <v>0</v>
@@ -24465,28 +24465,28 @@
         <v>0</v>
       </c>
       <c r="IJ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IN20" t="n">
         <v>0</v>
       </c>
       <c r="IO20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP20" t="n">
         <v>1</v>
       </c>
       <c r="IQ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR20" t="n">
         <v>0</v>
@@ -24498,10 +24498,10 @@
         <v>0</v>
       </c>
       <c r="IU20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW20" t="n">
         <v>0</v>
@@ -24513,10 +24513,10 @@
         <v>0</v>
       </c>
       <c r="IZ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JB20" t="n">
         <v>0</v>
@@ -24537,22 +24537,22 @@
         <v>0</v>
       </c>
       <c r="JH20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JI20" t="n">
         <v>1</v>
       </c>
       <c r="JJ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK20" t="n">
         <v>0</v>
       </c>
       <c r="JL20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JN20" t="n">
         <v>0</v>
@@ -24573,28 +24573,28 @@
         <v>0</v>
       </c>
       <c r="JT20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW20" t="n">
         <v>1</v>
       </c>
       <c r="JX20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ20" t="n">
         <v>1</v>
       </c>
       <c r="KA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KB20" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="KI20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KK20" t="n">
         <v>0</v>
@@ -24639,7 +24639,7 @@
         <v>0</v>
       </c>
       <c r="KP20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KQ20" t="n">
         <v>1</v>
@@ -24648,13 +24648,13 @@
         <v>1</v>
       </c>
       <c r="KS20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KU20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KV20" t="n">
         <v>0</v>
@@ -24675,16 +24675,16 @@
         <v>0</v>
       </c>
       <c r="LB20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LC20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LD20" t="n">
         <v>0</v>
       </c>
       <c r="LE20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LF20" t="n">
         <v>0</v>
@@ -24702,22 +24702,22 @@
         <v>0</v>
       </c>
       <c r="LK20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LL20" t="n">
         <v>0</v>
       </c>
       <c r="LM20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LN20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LO20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LP20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LQ20" t="n">
         <v>0</v>
@@ -24726,7 +24726,7 @@
         <v>0</v>
       </c>
       <c r="LS20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LT20" t="n">
         <v>0</v>
@@ -24738,7 +24738,7 @@
         <v>0</v>
       </c>
       <c r="LW20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX20" t="n">
         <v>0</v>
@@ -24747,7 +24747,7 @@
         <v>0</v>
       </c>
       <c r="LZ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MA20" t="n">
         <v>0</v>
@@ -24759,37 +24759,37 @@
         <v>0</v>
       </c>
       <c r="MD20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ME20" t="n">
         <v>0</v>
       </c>
       <c r="MF20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MG20" t="n">
         <v>0</v>
       </c>
       <c r="MH20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MI20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MJ20" t="n">
         <v>0</v>
       </c>
       <c r="MK20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ML20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MM20" t="n">
         <v>0</v>
       </c>
       <c r="MN20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MO20" t="n">
         <v>0</v>
@@ -24810,7 +24810,7 @@
         <v>0</v>
       </c>
       <c r="MU20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MV20" t="n">
         <v>0</v>
@@ -24819,25 +24819,25 @@
         <v>1</v>
       </c>
       <c r="MX20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MY20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MZ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NB20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NC20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ND20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE20" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="NG20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NH20" t="n">
         <v>0</v>
       </c>
       <c r="NI20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NJ20" t="n">
         <v>0</v>
@@ -24867,13 +24867,13 @@
         <v>0</v>
       </c>
       <c r="NN20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NO20" t="n">
         <v>0</v>
       </c>
       <c r="NP20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NQ20" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="NU20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NW20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NX20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NY20" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="ER21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU21" t="n">
         <v>1</v>
       </c>
       <c r="EV21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW21" t="n">
         <v>0</v>
@@ -25425,10 +25425,10 @@
         <v>0</v>
       </c>
       <c r="FM21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO21" t="n">
         <v>0</v>
@@ -25668,10 +25668,10 @@
         <v>0</v>
       </c>
       <c r="IP21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR21" t="n">
         <v>0</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="JR21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT21" t="n">
         <v>0</v>
@@ -25938,13 +25938,13 @@
         <v>0</v>
       </c>
       <c r="MB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MC21" t="n">
         <v>0</v>
       </c>
       <c r="MD21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ME21" t="n">
         <v>0</v>
@@ -25962,13 +25962,13 @@
         <v>0</v>
       </c>
       <c r="MJ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MK21" t="n">
         <v>0</v>
       </c>
       <c r="ML21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MM21" t="n">
         <v>0</v>
@@ -26013,13 +26013,13 @@
         <v>0</v>
       </c>
       <c r="NA21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NB21" t="n">
         <v>0</v>
       </c>
       <c r="NC21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ND21" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="NU21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NW21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NX21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NY21" t="n">
         <v>0</v>
@@ -26955,10 +26955,10 @@
         <v>0</v>
       </c>
       <c r="JX22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ22" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="KR22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT22" t="n">
         <v>0</v>
@@ -27102,13 +27102,13 @@
         <v>0</v>
       </c>
       <c r="LU22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV22" t="n">
         <v>0</v>
       </c>
       <c r="LW22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX22" t="n">
         <v>0</v>
@@ -27183,13 +27183,13 @@
         <v>0</v>
       </c>
       <c r="MV22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MW22" t="n">
         <v>0</v>
       </c>
       <c r="MX22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY22" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>0</v>
       </c>
       <c r="NU22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NW22" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         <v>0</v>
       </c>
       <c r="DE23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG23" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="II23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK23" t="n">
         <v>0</v>
@@ -28095,19 +28095,19 @@
         <v>0</v>
       </c>
       <c r="JI23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK23" t="n">
         <v>0</v>
       </c>
       <c r="JL23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JN23" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="LS23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LT23" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="LW23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX23" t="n">
         <v>0</v>
@@ -28797,22 +28797,22 @@
         <v>0</v>
       </c>
       <c r="DD24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE24" t="n">
         <v>1</v>
       </c>
       <c r="DF24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG24" t="n">
         <v>0</v>
       </c>
       <c r="DH24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ24" t="n">
         <v>0</v>
@@ -28833,16 +28833,16 @@
         <v>0</v>
       </c>
       <c r="DP24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT24" t="n">
         <v>0</v>
@@ -28869,10 +28869,10 @@
         <v>0</v>
       </c>
       <c r="EB24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED24" t="n">
         <v>0</v>
@@ -28884,19 +28884,19 @@
         <v>0</v>
       </c>
       <c r="EG24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI24" t="n">
         <v>0</v>
       </c>
       <c r="EJ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL24" t="n">
         <v>0</v>
@@ -28908,10 +28908,10 @@
         <v>0</v>
       </c>
       <c r="EO24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ24" t="n">
         <v>0</v>
@@ -28923,10 +28923,10 @@
         <v>0</v>
       </c>
       <c r="ET24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV24" t="n">
         <v>0</v>
@@ -28968,19 +28968,19 @@
         <v>0</v>
       </c>
       <c r="FI24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK24" t="n">
         <v>0</v>
       </c>
       <c r="FL24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN24" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="FP24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ24" t="n">
         <v>1</v>
@@ -28998,7 +28998,7 @@
         <v>1</v>
       </c>
       <c r="FS24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT24" t="n">
         <v>0</v>
@@ -29022,16 +29022,16 @@
         <v>0</v>
       </c>
       <c r="GA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE24" t="n">
         <v>0</v>
@@ -29040,10 +29040,10 @@
         <v>0</v>
       </c>
       <c r="GG24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GI24" t="n">
         <v>0</v>
@@ -29100,19 +29100,19 @@
         <v>0</v>
       </c>
       <c r="HA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HB24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HC24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD24" t="n">
         <v>1</v>
       </c>
       <c r="HE24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF24" t="n">
         <v>0</v>
@@ -29130,10 +29130,10 @@
         <v>0</v>
       </c>
       <c r="HK24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HM24" t="n">
         <v>0</v>
@@ -29190,10 +29190,10 @@
         <v>0</v>
       </c>
       <c r="IE24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG24" t="n">
         <v>0</v>
@@ -29202,13 +29202,13 @@
         <v>0</v>
       </c>
       <c r="II24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ24" t="n">
         <v>1</v>
       </c>
       <c r="IK24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL24" t="n">
         <v>0</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="IU24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV24" t="n">
         <v>1</v>
       </c>
       <c r="IW24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX24" t="n">
         <v>0</v>
@@ -29256,13 +29256,13 @@
         <v>0</v>
       </c>
       <c r="JA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB24" t="n">
         <v>1</v>
       </c>
       <c r="JC24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD24" t="n">
         <v>0</v>
@@ -29280,61 +29280,61 @@
         <v>0</v>
       </c>
       <c r="JI24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK24" t="n">
         <v>0</v>
       </c>
       <c r="JL24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JN24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JO24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JP24" t="n">
         <v>0</v>
       </c>
       <c r="JQ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JR24" t="n">
         <v>1</v>
       </c>
       <c r="JS24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV24" t="n">
         <v>0</v>
       </c>
       <c r="JW24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY24" t="n">
         <v>0</v>
       </c>
       <c r="JZ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KB24" t="n">
         <v>0</v>
@@ -29352,10 +29352,10 @@
         <v>0</v>
       </c>
       <c r="KG24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KH24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KI24" t="n">
         <v>0</v>
@@ -29382,19 +29382,19 @@
         <v>0</v>
       </c>
       <c r="KQ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KR24" t="n">
         <v>1</v>
       </c>
       <c r="KS24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KU24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KV24" t="n">
         <v>0</v>
@@ -29415,10 +29415,10 @@
         <v>0</v>
       </c>
       <c r="LB24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LC24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LD24" t="n">
         <v>0</v>
@@ -29430,7 +29430,7 @@
         <v>0</v>
       </c>
       <c r="LG24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LH24" t="n">
         <v>0</v>
@@ -29442,7 +29442,7 @@
         <v>0</v>
       </c>
       <c r="LK24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LL24" t="n">
         <v>0</v>
@@ -29463,13 +29463,13 @@
         <v>0</v>
       </c>
       <c r="LR24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LS24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LT24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LU24" t="n">
         <v>1</v>
@@ -29478,7 +29478,7 @@
         <v>0</v>
       </c>
       <c r="LW24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX24" t="n">
         <v>0</v>
@@ -29505,13 +29505,13 @@
         <v>0</v>
       </c>
       <c r="MF24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MG24" t="n">
         <v>0</v>
       </c>
       <c r="MH24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MI24" t="n">
         <v>0</v>
@@ -29529,13 +29529,13 @@
         <v>0</v>
       </c>
       <c r="MN24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO24" t="n">
         <v>0</v>
       </c>
       <c r="MP24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ24" t="n">
         <v>0</v>
@@ -29550,7 +29550,7 @@
         <v>0</v>
       </c>
       <c r="MU24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MV24" t="n">
         <v>0</v>
@@ -29562,19 +29562,19 @@
         <v>0</v>
       </c>
       <c r="MY24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MZ24" t="n">
         <v>0</v>
       </c>
       <c r="NA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NB24" t="n">
         <v>0</v>
       </c>
       <c r="NC24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ND24" t="n">
         <v>0</v>
@@ -29586,34 +29586,34 @@
         <v>0</v>
       </c>
       <c r="NG24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NH24" t="n">
         <v>0</v>
       </c>
       <c r="NI24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NJ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NK24" t="n">
         <v>0</v>
       </c>
       <c r="NL24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NM24" t="n">
         <v>0</v>
       </c>
       <c r="NN24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NO24" t="n">
         <v>0</v>
       </c>
       <c r="NP24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NQ24" t="n">
         <v>0</v>
@@ -29628,10 +29628,10 @@
         <v>0</v>
       </c>
       <c r="NU24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NW24" t="n">
         <v>0</v>
@@ -30057,10 +30057,10 @@
         <v>0</v>
       </c>
       <c r="EC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE25" t="n">
         <v>0</v>
@@ -30084,10 +30084,10 @@
         <v>0</v>
       </c>
       <c r="EL25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN25" t="n">
         <v>0</v>
@@ -30111,19 +30111,19 @@
         <v>0</v>
       </c>
       <c r="EU25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW25" t="n">
         <v>0</v>
       </c>
       <c r="EX25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ25" t="n">
         <v>0</v>
@@ -30147,16 +30147,16 @@
         <v>0</v>
       </c>
       <c r="FG25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK25" t="n">
         <v>0</v>
@@ -30165,13 +30165,13 @@
         <v>0</v>
       </c>
       <c r="FM25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN25" t="n">
         <v>1</v>
       </c>
       <c r="FO25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP25" t="n">
         <v>0</v>
@@ -30387,10 +30387,10 @@
         <v>0</v>
       </c>
       <c r="II25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK25" t="n">
         <v>0</v>
@@ -30408,10 +30408,10 @@
         <v>0</v>
       </c>
       <c r="IP25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR25" t="n">
         <v>0</v>
@@ -30438,10 +30438,10 @@
         <v>0</v>
       </c>
       <c r="IZ25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JB25" t="n">
         <v>0</v>
@@ -30492,28 +30492,28 @@
         <v>0</v>
       </c>
       <c r="JR25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ25" t="n">
         <v>0</v>
@@ -30540,10 +30540,10 @@
         <v>0</v>
       </c>
       <c r="KH25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KI25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KJ25" t="n">
         <v>0</v>
@@ -30555,10 +30555,10 @@
         <v>0</v>
       </c>
       <c r="KM25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KO25" t="n">
         <v>0</v>
@@ -30570,10 +30570,10 @@
         <v>0</v>
       </c>
       <c r="KR25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT25" t="n">
         <v>0</v>
@@ -30600,10 +30600,10 @@
         <v>0</v>
       </c>
       <c r="LB25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LC25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LD25" t="n">
         <v>0</v>
@@ -30714,13 +30714,13 @@
         <v>0</v>
       </c>
       <c r="MN25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO25" t="n">
         <v>0</v>
       </c>
       <c r="MP25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ25" t="n">
         <v>0</v>
@@ -30738,13 +30738,13 @@
         <v>0</v>
       </c>
       <c r="MV25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MW25" t="n">
         <v>0</v>
       </c>
       <c r="MX25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY25" t="n">
         <v>0</v>
@@ -30753,13 +30753,13 @@
         <v>0</v>
       </c>
       <c r="NA25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NB25" t="n">
         <v>0</v>
       </c>
       <c r="NC25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ND25" t="n">
         <v>0</v>
@@ -30813,10 +30813,10 @@
         <v>0</v>
       </c>
       <c r="NU25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NW25" t="n">
         <v>0</v>
@@ -31254,10 +31254,10 @@
         <v>0</v>
       </c>
       <c r="EG26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI26" t="n">
         <v>0</v>
@@ -31392,16 +31392,16 @@
         <v>0</v>
       </c>
       <c r="GA26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE26" t="n">
         <v>0</v>
@@ -31476,10 +31476,10 @@
         <v>0</v>
       </c>
       <c r="HC26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HE26" t="n">
         <v>0</v>
@@ -31575,10 +31575,10 @@
         <v>0</v>
       </c>
       <c r="IJ26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL26" t="n">
         <v>0</v>
@@ -31650,10 +31650,10 @@
         <v>0</v>
       </c>
       <c r="JI26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK26" t="n">
         <v>0</v>
@@ -31692,10 +31692,10 @@
         <v>0</v>
       </c>
       <c r="JW26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY26" t="n">
         <v>0</v>
@@ -31842,13 +31842,13 @@
         <v>0</v>
       </c>
       <c r="LU26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV26" t="n">
         <v>0</v>
       </c>
       <c r="LW26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX26" t="n">
         <v>0</v>
@@ -32352,13 +32352,13 @@
         <v>0</v>
       </c>
       <c r="DD27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE27" t="n">
         <v>1</v>
       </c>
       <c r="DF27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG27" t="n">
         <v>0</v>
@@ -32439,10 +32439,10 @@
         <v>0</v>
       </c>
       <c r="EG27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI27" t="n">
         <v>0</v>
@@ -32478,10 +32478,10 @@
         <v>0</v>
       </c>
       <c r="ET27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV27" t="n">
         <v>0</v>
@@ -32661,10 +32661,10 @@
         <v>0</v>
       </c>
       <c r="HC27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HE27" t="n">
         <v>0</v>
@@ -32760,10 +32760,10 @@
         <v>0</v>
       </c>
       <c r="IJ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL27" t="n">
         <v>0</v>
@@ -32835,10 +32835,10 @@
         <v>0</v>
       </c>
       <c r="JI27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK27" t="n">
         <v>0</v>
@@ -33027,13 +33027,13 @@
         <v>0</v>
       </c>
       <c r="LU27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV27" t="n">
         <v>0</v>
       </c>
       <c r="LW27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX27" t="n">
         <v>0</v>
@@ -33762,10 +33762,10 @@
         <v>0</v>
       </c>
       <c r="GA28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC28" t="n">
         <v>0</v>
@@ -33846,10 +33846,10 @@
         <v>0</v>
       </c>
       <c r="HC28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HE28" t="n">
         <v>0</v>
@@ -34020,10 +34020,10 @@
         <v>0</v>
       </c>
       <c r="JI28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK28" t="n">
         <v>0</v>
@@ -34725,10 +34725,10 @@
         <v>0</v>
       </c>
       <c r="DE29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG29" t="n">
         <v>0</v>
@@ -34809,10 +34809,10 @@
         <v>0</v>
       </c>
       <c r="EG29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI29" t="n">
         <v>0</v>
@@ -34845,13 +34845,13 @@
         <v>0</v>
       </c>
       <c r="ES29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET29" t="n">
         <v>1</v>
       </c>
       <c r="EU29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV29" t="n">
         <v>0</v>
@@ -34917,13 +34917,13 @@
         <v>0</v>
       </c>
       <c r="FQ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR29" t="n">
         <v>1</v>
       </c>
       <c r="FS29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT29" t="n">
         <v>0</v>
@@ -34947,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="GA29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE29" t="n">
         <v>0</v>
@@ -35031,10 +35031,10 @@
         <v>0</v>
       </c>
       <c r="HC29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HE29" t="n">
         <v>0</v>
@@ -35127,13 +35127,13 @@
         <v>0</v>
       </c>
       <c r="II29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ29" t="n">
         <v>1</v>
       </c>
       <c r="IK29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL29" t="n">
         <v>0</v>
@@ -35163,10 +35163,10 @@
         <v>0</v>
       </c>
       <c r="IU29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW29" t="n">
         <v>0</v>
@@ -35181,10 +35181,10 @@
         <v>0</v>
       </c>
       <c r="JA29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC29" t="n">
         <v>0</v>
@@ -35205,10 +35205,10 @@
         <v>0</v>
       </c>
       <c r="JI29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK29" t="n">
         <v>0</v>
@@ -35238,19 +35238,19 @@
         <v>0</v>
       </c>
       <c r="JT29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV29" t="n">
         <v>0</v>
       </c>
       <c r="JW29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY29" t="n">
         <v>0</v>
@@ -35310,10 +35310,10 @@
         <v>0</v>
       </c>
       <c r="KR29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT29" t="n">
         <v>0</v>
@@ -35391,7 +35391,7 @@
         <v>0</v>
       </c>
       <c r="LS29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LT29" t="n">
         <v>0</v>
@@ -35403,7 +35403,7 @@
         <v>0</v>
       </c>
       <c r="LW29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX29" t="n">
         <v>0</v>
@@ -35454,13 +35454,13 @@
         <v>0</v>
       </c>
       <c r="MN29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO29" t="n">
         <v>0</v>
       </c>
       <c r="MP29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ29" t="n">
         <v>0</v>
@@ -35532,13 +35532,13 @@
         <v>0</v>
       </c>
       <c r="NN29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NO29" t="n">
         <v>0</v>
       </c>
       <c r="NP29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NQ29" t="n">
         <v>0</v>
@@ -35943,10 +35943,10 @@
         <v>0</v>
       </c>
       <c r="DP30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR30" t="n">
         <v>0</v>
@@ -36312,10 +36312,10 @@
         <v>0</v>
       </c>
       <c r="II30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK30" t="n">
         <v>0</v>
@@ -36495,10 +36495,10 @@
         <v>0</v>
       </c>
       <c r="KR30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT30" t="n">
         <v>0</v>
@@ -36582,13 +36582,13 @@
         <v>0</v>
       </c>
       <c r="LU30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV30" t="n">
         <v>0</v>
       </c>
       <c r="LW30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX30" t="n">
         <v>0</v>
@@ -36639,13 +36639,13 @@
         <v>0</v>
       </c>
       <c r="MN30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO30" t="n">
         <v>0</v>
       </c>
       <c r="MP30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ30" t="n">
         <v>0</v>
@@ -36738,10 +36738,10 @@
         <v>0</v>
       </c>
       <c r="NU30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NW30" t="n">
         <v>0</v>
@@ -37824,13 +37824,13 @@
         <v>0</v>
       </c>
       <c r="MN31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO31" t="n">
         <v>0</v>
       </c>
       <c r="MP31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ31" t="n">
         <v>0</v>
@@ -38445,10 +38445,10 @@
         <v>0</v>
       </c>
       <c r="FH32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ32" t="n">
         <v>0</v>
@@ -38685,10 +38685,10 @@
         <v>0</v>
       </c>
       <c r="IJ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL32" t="n">
         <v>0</v>
@@ -40983,10 +40983,10 @@
         <v>0</v>
       </c>
       <c r="HL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN34" t="n">
         <v>0</v>
@@ -41262,10 +41262,10 @@
         <v>0</v>
       </c>
       <c r="LA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LB34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LC34" t="n">
         <v>0</v>
@@ -41832,13 +41832,13 @@
         <v>0</v>
       </c>
       <c r="DD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE35" t="n">
         <v>1</v>
       </c>
       <c r="DF35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG35" t="n">
         <v>0</v>
@@ -41907,10 +41907,10 @@
         <v>0</v>
       </c>
       <c r="EC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE35" t="n">
         <v>0</v>
@@ -41973,10 +41973,10 @@
         <v>0</v>
       </c>
       <c r="EY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA35" t="n">
         <v>0</v>
@@ -42018,16 +42018,16 @@
         <v>0</v>
       </c>
       <c r="FN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR35" t="n">
         <v>0</v>
@@ -42042,10 +42042,10 @@
         <v>0</v>
       </c>
       <c r="FV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX35" t="n">
         <v>0</v>
@@ -42057,10 +42057,10 @@
         <v>0</v>
       </c>
       <c r="GA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC35" t="n">
         <v>0</v>
@@ -42147,10 +42147,10 @@
         <v>0</v>
       </c>
       <c r="HE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG35" t="n">
         <v>0</v>
@@ -42195,13 +42195,13 @@
         <v>0</v>
       </c>
       <c r="HU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV35" t="n">
         <v>1</v>
       </c>
       <c r="HW35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX35" t="n">
         <v>0</v>
@@ -42210,22 +42210,22 @@
         <v>0</v>
       </c>
       <c r="HZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA35" t="n">
         <v>1</v>
       </c>
       <c r="IB35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC35" t="n">
         <v>0</v>
       </c>
       <c r="ID35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF35" t="n">
         <v>0</v>
@@ -42237,10 +42237,10 @@
         <v>0</v>
       </c>
       <c r="II35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK35" t="n">
         <v>0</v>
@@ -42258,10 +42258,10 @@
         <v>0</v>
       </c>
       <c r="IP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR35" t="n">
         <v>0</v>
@@ -42312,22 +42312,22 @@
         <v>0</v>
       </c>
       <c r="JH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JI35" t="n">
         <v>1</v>
       </c>
       <c r="JJ35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK35" t="n">
         <v>0</v>
       </c>
       <c r="JL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JN35" t="n">
         <v>0</v>
@@ -42342,25 +42342,25 @@
         <v>0</v>
       </c>
       <c r="JR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW35" t="n">
         <v>1</v>
       </c>
       <c r="JX35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY35" t="n">
         <v>0</v>
@@ -42396,10 +42396,10 @@
         <v>0</v>
       </c>
       <c r="KJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KL35" t="n">
         <v>0</v>
@@ -42420,10 +42420,10 @@
         <v>0</v>
       </c>
       <c r="KR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT35" t="n">
         <v>0</v>
@@ -42450,10 +42450,10 @@
         <v>0</v>
       </c>
       <c r="LB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LC35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LD35" t="n">
         <v>0</v>
@@ -42471,13 +42471,13 @@
         <v>0</v>
       </c>
       <c r="LI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ35" t="n">
         <v>0</v>
       </c>
       <c r="LK35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LL35" t="n">
         <v>0</v>
@@ -42486,13 +42486,13 @@
         <v>0</v>
       </c>
       <c r="LN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LO35" t="n">
         <v>0</v>
       </c>
       <c r="LP35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LQ35" t="n">
         <v>0</v>
@@ -42501,7 +42501,7 @@
         <v>0</v>
       </c>
       <c r="LS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LT35" t="n">
         <v>0</v>
@@ -42513,7 +42513,7 @@
         <v>0</v>
       </c>
       <c r="LW35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX35" t="n">
         <v>0</v>
@@ -42528,25 +42528,25 @@
         <v>0</v>
       </c>
       <c r="MB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MC35" t="n">
         <v>0</v>
       </c>
       <c r="MD35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ME35" t="n">
         <v>0</v>
       </c>
       <c r="MF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MG35" t="n">
         <v>0</v>
       </c>
       <c r="MH35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MI35" t="n">
         <v>0</v>
@@ -42555,22 +42555,22 @@
         <v>0</v>
       </c>
       <c r="MK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ML35" t="n">
         <v>0</v>
       </c>
       <c r="MM35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO35" t="n">
         <v>0</v>
       </c>
       <c r="MP35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ35" t="n">
         <v>0</v>
@@ -42603,13 +42603,13 @@
         <v>0</v>
       </c>
       <c r="NA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NB35" t="n">
         <v>0</v>
       </c>
       <c r="NC35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ND35" t="n">
         <v>0</v>
@@ -42663,16 +42663,16 @@
         <v>0</v>
       </c>
       <c r="NU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NX35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NY35" t="n">
         <v>0</v>
@@ -43017,10 +43017,10 @@
         <v>0</v>
       </c>
       <c r="DD36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="n">
         <v>0</v>
@@ -43380,10 +43380,10 @@
         <v>0</v>
       </c>
       <c r="HU36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW36" t="n">
         <v>0</v>
@@ -43440,13 +43440,13 @@
         <v>0</v>
       </c>
       <c r="IO36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP36" t="n">
         <v>1</v>
       </c>
       <c r="IQ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR36" t="n">
         <v>0</v>
@@ -43461,10 +43461,10 @@
         <v>0</v>
       </c>
       <c r="IV36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX36" t="n">
         <v>0</v>
@@ -43497,10 +43497,10 @@
         <v>0</v>
       </c>
       <c r="JH36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JI36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36" t="n">
         <v>0</v>
@@ -43512,10 +43512,10 @@
         <v>0</v>
       </c>
       <c r="JM36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO36" t="n">
         <v>0</v>
@@ -43605,13 +43605,13 @@
         <v>0</v>
       </c>
       <c r="KR36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS36" t="n">
         <v>1</v>
       </c>
       <c r="KT36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU36" t="n">
         <v>0</v>
@@ -43650,13 +43650,13 @@
         <v>0</v>
       </c>
       <c r="LG36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LH36" t="n">
         <v>0</v>
       </c>
       <c r="LI36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LJ36" t="n">
         <v>0</v>
@@ -43692,7 +43692,7 @@
         <v>0</v>
       </c>
       <c r="LU36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV36" t="n">
         <v>0</v>
@@ -43704,7 +43704,7 @@
         <v>0</v>
       </c>
       <c r="LY36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LZ36" t="n">
         <v>0</v>
@@ -43725,13 +43725,13 @@
         <v>0</v>
       </c>
       <c r="MF36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MG36" t="n">
         <v>0</v>
       </c>
       <c r="MH36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MI36" t="n">
         <v>0</v>
@@ -43749,13 +43749,13 @@
         <v>0</v>
       </c>
       <c r="MN36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO36" t="n">
         <v>0</v>
       </c>
       <c r="MP36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ36" t="n">
         <v>0</v>
@@ -45897,10 +45897,10 @@
         <v>0</v>
       </c>
       <c r="JR38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT38" t="n">
         <v>0</v>
@@ -46119,13 +46119,13 @@
         <v>0</v>
       </c>
       <c r="MN38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO38" t="n">
         <v>0</v>
       </c>
       <c r="MP38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ38" t="n">
         <v>0</v>
@@ -46224,10 +46224,10 @@
         <v>0</v>
       </c>
       <c r="NW38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NX38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NY38" t="n">
         <v>0</v>
@@ -46575,13 +46575,13 @@
         <v>0</v>
       </c>
       <c r="DE39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF39" t="n">
         <v>1</v>
       </c>
       <c r="DG39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH39" t="n">
         <v>0</v>
@@ -46710,10 +46710,10 @@
         <v>0</v>
       </c>
       <c r="EX39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ39" t="n">
         <v>0</v>
@@ -46770,10 +46770,10 @@
         <v>0</v>
       </c>
       <c r="FR39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT39" t="n">
         <v>0</v>
@@ -46803,10 +46803,10 @@
         <v>0</v>
       </c>
       <c r="GC39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE39" t="n">
         <v>0</v>
@@ -46881,10 +46881,10 @@
         <v>0</v>
       </c>
       <c r="HC39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HE39" t="n">
         <v>0</v>
@@ -46902,13 +46902,13 @@
         <v>0</v>
       </c>
       <c r="HJ39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HK39" t="n">
         <v>1</v>
       </c>
       <c r="HL39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HM39" t="n">
         <v>0</v>
@@ -46980,10 +46980,10 @@
         <v>0</v>
       </c>
       <c r="IJ39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL39" t="n">
         <v>0</v>
@@ -47013,10 +47013,10 @@
         <v>0</v>
       </c>
       <c r="IU39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW39" t="n">
         <v>0</v>
@@ -47040,25 +47040,25 @@
         <v>0</v>
       </c>
       <c r="JD39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JE39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG39" t="n">
         <v>1</v>
       </c>
       <c r="JH39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JI39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK39" t="n">
         <v>0</v>
@@ -47082,10 +47082,10 @@
         <v>0</v>
       </c>
       <c r="JR39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT39" t="n">
         <v>0</v>
@@ -47097,10 +47097,10 @@
         <v>0</v>
       </c>
       <c r="JW39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY39" t="n">
         <v>0</v>
@@ -47199,13 +47199,13 @@
         <v>0</v>
       </c>
       <c r="LE39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LF39" t="n">
         <v>0</v>
       </c>
       <c r="LG39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LH39" t="n">
         <v>0</v>
@@ -47241,7 +47241,7 @@
         <v>0</v>
       </c>
       <c r="LS39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LT39" t="n">
         <v>0</v>
@@ -47253,7 +47253,7 @@
         <v>0</v>
       </c>
       <c r="LW39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX39" t="n">
         <v>0</v>
@@ -47325,13 +47325,13 @@
         <v>0</v>
       </c>
       <c r="MU39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MV39" t="n">
         <v>0</v>
       </c>
       <c r="MW39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MX39" t="n">
         <v>0</v>
@@ -47406,10 +47406,10 @@
         <v>0</v>
       </c>
       <c r="NV39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX39" t="n">
         <v>0</v>
@@ -47895,10 +47895,10 @@
         <v>0</v>
       </c>
       <c r="EX40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ40" t="n">
         <v>0</v>
@@ -48066,10 +48066,10 @@
         <v>0</v>
       </c>
       <c r="HC40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HE40" t="n">
         <v>0</v>
@@ -48183,10 +48183,10 @@
         <v>0</v>
       </c>
       <c r="IP40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR40" t="n">
         <v>0</v>
@@ -48240,10 +48240,10 @@
         <v>0</v>
       </c>
       <c r="JI40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK40" t="n">
         <v>0</v>
@@ -48528,13 +48528,13 @@
         <v>0</v>
       </c>
       <c r="NA40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NB40" t="n">
         <v>0</v>
       </c>
       <c r="NC40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ND40" t="n">
         <v>0</v>
@@ -50310,10 +50310,10 @@
         <v>0</v>
       </c>
       <c r="FM42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO42" t="n">
         <v>0</v>
@@ -50364,10 +50364,10 @@
         <v>0</v>
       </c>
       <c r="GE42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG42" t="n">
         <v>0</v>
@@ -50493,10 +50493,10 @@
         <v>0</v>
       </c>
       <c r="HV42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX42" t="n">
         <v>0</v>
@@ -50619,10 +50619,10 @@
         <v>0</v>
       </c>
       <c r="JL42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JN42" t="n">
         <v>0</v>
@@ -50637,16 +50637,16 @@
         <v>0</v>
       </c>
       <c r="JR42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV42" t="n">
         <v>0</v>
@@ -50715,10 +50715,10 @@
         <v>0</v>
       </c>
       <c r="KR42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT42" t="n">
         <v>0</v>
@@ -50802,13 +50802,13 @@
         <v>0</v>
       </c>
       <c r="LU42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV42" t="n">
         <v>0</v>
       </c>
       <c r="LW42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX42" t="n">
         <v>0</v>
@@ -50823,25 +50823,25 @@
         <v>0</v>
       </c>
       <c r="MB42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MC42" t="n">
         <v>0</v>
       </c>
       <c r="MD42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ME42" t="n">
         <v>0</v>
       </c>
       <c r="MF42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MG42" t="n">
         <v>0</v>
       </c>
       <c r="MH42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MI42" t="n">
         <v>0</v>
@@ -50859,13 +50859,13 @@
         <v>0</v>
       </c>
       <c r="MN42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO42" t="n">
         <v>0</v>
       </c>
       <c r="MP42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ42" t="n">
         <v>0</v>
@@ -50874,22 +50874,22 @@
         <v>0</v>
       </c>
       <c r="MS42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MT42" t="n">
         <v>0</v>
       </c>
       <c r="MU42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MV42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MW42" t="n">
         <v>0</v>
       </c>
       <c r="MX42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY42" t="n">
         <v>0</v>
@@ -50898,13 +50898,13 @@
         <v>0</v>
       </c>
       <c r="NA42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NB42" t="n">
         <v>0</v>
       </c>
       <c r="NC42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ND42" t="n">
         <v>0</v>
@@ -50958,19 +50958,19 @@
         <v>0</v>
       </c>
       <c r="NU42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NW42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NX42" t="n">
         <v>1</v>
       </c>
       <c r="NY42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NZ42" t="n">
         <v>0</v>
@@ -51315,10 +51315,10 @@
         <v>0</v>
       </c>
       <c r="DE43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG43" t="n">
         <v>0</v>
@@ -51438,10 +51438,10 @@
         <v>0</v>
       </c>
       <c r="ET43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV43" t="n">
         <v>0</v>
@@ -51621,10 +51621,10 @@
         <v>0</v>
       </c>
       <c r="HC43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HE43" t="n">
         <v>0</v>
@@ -51720,10 +51720,10 @@
         <v>0</v>
       </c>
       <c r="IJ43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL43" t="n">
         <v>0</v>
@@ -51771,10 +51771,10 @@
         <v>0</v>
       </c>
       <c r="JA43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC43" t="n">
         <v>0</v>
@@ -51795,10 +51795,10 @@
         <v>0</v>
       </c>
       <c r="JI43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK43" t="n">
         <v>0</v>
@@ -51981,13 +51981,13 @@
         <v>0</v>
       </c>
       <c r="LS43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LT43" t="n">
         <v>0</v>
       </c>
       <c r="LU43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LV43" t="n">
         <v>0</v>
@@ -52122,13 +52122,13 @@
         <v>0</v>
       </c>
       <c r="NN43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NO43" t="n">
         <v>0</v>
       </c>
       <c r="NP43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NQ43" t="n">
         <v>0</v>
@@ -52923,10 +52923,10 @@
         <v>0</v>
       </c>
       <c r="IP44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR44" t="n">
         <v>0</v>
@@ -53229,13 +53229,13 @@
         <v>0</v>
       </c>
       <c r="MN44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO44" t="n">
         <v>0</v>
       </c>
       <c r="MP44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ44" t="n">
         <v>0</v>
@@ -53328,10 +53328,10 @@
         <v>0</v>
       </c>
       <c r="NU44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NW44" t="n">
         <v>0</v>
@@ -53682,10 +53682,10 @@
         <v>0</v>
       </c>
       <c r="DD45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF45" t="n">
         <v>0</v>
@@ -53769,10 +53769,10 @@
         <v>0</v>
       </c>
       <c r="EG45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI45" t="n">
         <v>0</v>
@@ -54090,10 +54090,10 @@
         <v>0</v>
       </c>
       <c r="IJ45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL45" t="n">
         <v>0</v>
@@ -54141,10 +54141,10 @@
         <v>0</v>
       </c>
       <c r="JA45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC45" t="n">
         <v>0</v>
@@ -54165,10 +54165,10 @@
         <v>0</v>
       </c>
       <c r="JI45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK45" t="n">
         <v>0</v>
@@ -54435,13 +54435,13 @@
         <v>0</v>
       </c>
       <c r="MU45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MV45" t="n">
         <v>0</v>
       </c>
       <c r="MW45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MX45" t="n">
         <v>0</v>
@@ -54870,10 +54870,10 @@
         <v>0</v>
       </c>
       <c r="DE46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG46" t="n">
         <v>0</v>
@@ -54993,10 +54993,10 @@
         <v>0</v>
       </c>
       <c r="ET46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV46" t="n">
         <v>0</v>
@@ -55176,10 +55176,10 @@
         <v>0</v>
       </c>
       <c r="HC46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HE46" t="n">
         <v>0</v>
@@ -55275,10 +55275,10 @@
         <v>0</v>
       </c>
       <c r="IJ46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL46" t="n">
         <v>0</v>
@@ -55326,10 +55326,10 @@
         <v>0</v>
       </c>
       <c r="JA46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC46" t="n">
         <v>0</v>
@@ -55350,10 +55350,10 @@
         <v>0</v>
       </c>
       <c r="JI46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK46" t="n">
         <v>0</v>
@@ -55536,13 +55536,13 @@
         <v>0</v>
       </c>
       <c r="LS46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LT46" t="n">
         <v>0</v>
       </c>
       <c r="LU46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LV46" t="n">
         <v>0</v>
@@ -55677,13 +55677,13 @@
         <v>0</v>
       </c>
       <c r="NN46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NO46" t="n">
         <v>0</v>
       </c>
       <c r="NP46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NQ46" t="n">
         <v>0</v>
@@ -56532,10 +56532,10 @@
         <v>0</v>
       </c>
       <c r="JH47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JI47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ47" t="n">
         <v>0</v>
@@ -56706,13 +56706,13 @@
         <v>0</v>
       </c>
       <c r="LN47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LO47" t="n">
         <v>0</v>
       </c>
       <c r="LP47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LQ47" t="n">
         <v>0</v>
@@ -57237,10 +57237,10 @@
         <v>0</v>
       </c>
       <c r="DD48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF48" t="n">
         <v>0</v>
@@ -57435,10 +57435,10 @@
         <v>0</v>
       </c>
       <c r="FR48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT48" t="n">
         <v>0</v>
@@ -57729,10 +57729,10 @@
         <v>0</v>
       </c>
       <c r="JL48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JN48" t="n">
         <v>0</v>
@@ -57747,10 +57747,10 @@
         <v>0</v>
       </c>
       <c r="JR48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT48" t="n">
         <v>0</v>
@@ -57969,13 +57969,13 @@
         <v>0</v>
       </c>
       <c r="MN48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO48" t="n">
         <v>0</v>
       </c>
       <c r="MP48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ48" t="n">
         <v>0</v>
@@ -58008,13 +58008,13 @@
         <v>0</v>
       </c>
       <c r="NA48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NB48" t="n">
         <v>0</v>
       </c>
       <c r="NC48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ND48" t="n">
         <v>0</v>
@@ -58905,10 +58905,10 @@
         <v>0</v>
       </c>
       <c r="JI49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK49" t="n">
         <v>0</v>
@@ -59610,10 +59610,10 @@
         <v>0</v>
       </c>
       <c r="DE50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG50" t="n">
         <v>0</v>
@@ -59643,10 +59643,10 @@
         <v>0</v>
       </c>
       <c r="DP50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR50" t="n">
         <v>0</v>
@@ -59733,10 +59733,10 @@
         <v>0</v>
       </c>
       <c r="ET50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV50" t="n">
         <v>0</v>
@@ -60090,10 +60090,10 @@
         <v>0</v>
       </c>
       <c r="JI50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK50" t="n">
         <v>0</v>
@@ -60132,10 +60132,10 @@
         <v>0</v>
       </c>
       <c r="JW50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY50" t="n">
         <v>0</v>
@@ -60282,13 +60282,13 @@
         <v>0</v>
       </c>
       <c r="LU50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LV50" t="n">
         <v>0</v>
       </c>
       <c r="LW50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX50" t="n">
         <v>0</v>
@@ -60792,7 +60792,7 @@
         <v>0</v>
       </c>
       <c r="DD51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE51" t="n">
         <v>1</v>
@@ -60801,13 +60801,13 @@
         <v>1</v>
       </c>
       <c r="DG51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ51" t="n">
         <v>0</v>
@@ -60822,22 +60822,22 @@
         <v>0</v>
       </c>
       <c r="DN51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT51" t="n">
         <v>0</v>
@@ -60879,10 +60879,10 @@
         <v>0</v>
       </c>
       <c r="EG51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI51" t="n">
         <v>0</v>
@@ -60903,10 +60903,10 @@
         <v>0</v>
       </c>
       <c r="EO51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ51" t="n">
         <v>0</v>
@@ -60915,7 +60915,7 @@
         <v>0</v>
       </c>
       <c r="ES51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET51" t="n">
         <v>1</v>
@@ -60924,7 +60924,7 @@
         <v>1</v>
       </c>
       <c r="EV51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW51" t="n">
         <v>0</v>
@@ -60963,10 +60963,10 @@
         <v>0</v>
       </c>
       <c r="FI51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK51" t="n">
         <v>0</v>
@@ -60984,7 +60984,7 @@
         <v>0</v>
       </c>
       <c r="FP51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ51" t="n">
         <v>1</v>
@@ -60993,7 +60993,7 @@
         <v>1</v>
       </c>
       <c r="FS51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT51" t="n">
         <v>0</v>
@@ -61017,16 +61017,16 @@
         <v>0</v>
       </c>
       <c r="GA51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE51" t="n">
         <v>0</v>
@@ -61035,28 +61035,28 @@
         <v>0</v>
       </c>
       <c r="GG51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GI51" t="n">
         <v>0</v>
       </c>
       <c r="GJ51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GL51" t="n">
         <v>0</v>
       </c>
       <c r="GM51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GN51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GO51" t="n">
         <v>0</v>
@@ -61095,19 +61095,19 @@
         <v>0</v>
       </c>
       <c r="HA51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HB51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD51" t="n">
         <v>1</v>
       </c>
       <c r="HE51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF51" t="n">
         <v>0</v>
@@ -61125,10 +61125,10 @@
         <v>0</v>
       </c>
       <c r="HK51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HM51" t="n">
         <v>0</v>
@@ -61155,10 +61155,10 @@
         <v>0</v>
       </c>
       <c r="HU51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW51" t="n">
         <v>0</v>
@@ -61179,10 +61179,10 @@
         <v>0</v>
       </c>
       <c r="IC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IE51" t="n">
         <v>0</v>
@@ -61197,13 +61197,13 @@
         <v>0</v>
       </c>
       <c r="II51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ51" t="n">
         <v>1</v>
       </c>
       <c r="IK51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL51" t="n">
         <v>0</v>
@@ -61218,10 +61218,10 @@
         <v>0</v>
       </c>
       <c r="IP51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR51" t="n">
         <v>0</v>
@@ -61230,7 +61230,7 @@
         <v>0</v>
       </c>
       <c r="IT51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU51" t="n">
         <v>1</v>
@@ -61239,7 +61239,7 @@
         <v>1</v>
       </c>
       <c r="IW51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX51" t="n">
         <v>0</v>
@@ -61251,19 +61251,19 @@
         <v>0</v>
       </c>
       <c r="JA51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB51" t="n">
         <v>1</v>
       </c>
       <c r="JC51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JE51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF51" t="n">
         <v>0</v>
@@ -61275,19 +61275,19 @@
         <v>0</v>
       </c>
       <c r="JI51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK51" t="n">
         <v>0</v>
       </c>
       <c r="JL51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JN51" t="n">
         <v>0</v>
@@ -61302,19 +61302,19 @@
         <v>0</v>
       </c>
       <c r="JR51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW51" t="n">
         <v>1</v>
@@ -61323,7 +61323,7 @@
         <v>1</v>
       </c>
       <c r="JY51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ51" t="n">
         <v>0</v>
@@ -61371,19 +61371,19 @@
         <v>0</v>
       </c>
       <c r="KO51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KP51" t="n">
         <v>1</v>
       </c>
       <c r="KQ51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT51" t="n">
         <v>0</v>
@@ -61410,16 +61410,16 @@
         <v>0</v>
       </c>
       <c r="LB51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LC51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LD51" t="n">
         <v>0</v>
       </c>
       <c r="LE51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LF51" t="n">
         <v>0</v>
@@ -61431,7 +61431,7 @@
         <v>0</v>
       </c>
       <c r="LI51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LJ51" t="n">
         <v>0</v>
@@ -61446,13 +61446,13 @@
         <v>0</v>
       </c>
       <c r="LN51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LO51" t="n">
         <v>0</v>
       </c>
       <c r="LP51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LQ51" t="n">
         <v>0</v>
@@ -61461,7 +61461,7 @@
         <v>0</v>
       </c>
       <c r="LS51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LT51" t="n">
         <v>0</v>
@@ -61473,7 +61473,7 @@
         <v>0</v>
       </c>
       <c r="LW51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX51" t="n">
         <v>0</v>
@@ -61500,7 +61500,7 @@
         <v>0</v>
       </c>
       <c r="MF51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MG51" t="n">
         <v>0</v>
@@ -61512,7 +61512,7 @@
         <v>0</v>
       </c>
       <c r="MJ51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MK51" t="n">
         <v>0</v>
@@ -61524,13 +61524,13 @@
         <v>0</v>
       </c>
       <c r="MN51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO51" t="n">
         <v>0</v>
       </c>
       <c r="MP51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ51" t="n">
         <v>0</v>
@@ -61539,7 +61539,7 @@
         <v>0</v>
       </c>
       <c r="MS51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MT51" t="n">
         <v>0</v>
@@ -61557,19 +61557,19 @@
         <v>0</v>
       </c>
       <c r="MY51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MZ51" t="n">
         <v>0</v>
       </c>
       <c r="NA51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NB51" t="n">
         <v>0</v>
       </c>
       <c r="NC51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ND51" t="n">
         <v>0</v>
@@ -61602,13 +61602,13 @@
         <v>0</v>
       </c>
       <c r="NN51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NO51" t="n">
         <v>0</v>
       </c>
       <c r="NP51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NQ51" t="n">
         <v>0</v>
@@ -61617,22 +61617,22 @@
         <v>0</v>
       </c>
       <c r="NS51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NT51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NU51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NW51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NX51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NY51" t="n">
         <v>0</v>
@@ -61977,10 +61977,10 @@
         <v>0</v>
       </c>
       <c r="DD52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF52" t="n">
         <v>0</v>
@@ -62148,10 +62148,10 @@
         <v>0</v>
       </c>
       <c r="FI52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK52" t="n">
         <v>0</v>
@@ -62175,10 +62175,10 @@
         <v>0</v>
       </c>
       <c r="FR52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT52" t="n">
         <v>0</v>
@@ -62460,10 +62460,10 @@
         <v>0</v>
       </c>
       <c r="JI52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK52" t="n">
         <v>0</v>
@@ -62502,13 +62502,13 @@
         <v>0</v>
       </c>
       <c r="JW52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX52" t="n">
         <v>1</v>
       </c>
       <c r="JY52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ52" t="n">
         <v>0</v>
@@ -63672,10 +63672,10 @@
         <v>0</v>
       </c>
       <c r="JR53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT53" t="n">
         <v>0</v>
@@ -63750,10 +63750,10 @@
         <v>0</v>
       </c>
       <c r="KR53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT53" t="n">
         <v>0</v>
@@ -63780,10 +63780,10 @@
         <v>0</v>
       </c>
       <c r="LB53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LC53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LD53" t="n">
         <v>0</v>
@@ -63933,13 +63933,13 @@
         <v>0</v>
       </c>
       <c r="NA53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NB53" t="n">
         <v>0</v>
       </c>
       <c r="NC53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ND53" t="n">
         <v>0</v>

--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NA53"/>
+  <dimension ref="A1:NB53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2251,10 +2251,15 @@
       </c>
       <c r="MZ1" s="1" t="inlineStr">
         <is>
+          <t>liferay-portal</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
           <t>Relational</t>
         </is>
       </c>
-      <c r="NA1" s="1" t="inlineStr">
+      <c r="NB1" s="1" t="inlineStr">
         <is>
           <t>Non Relational</t>
         </is>
@@ -3355,9 +3360,12 @@
         <v>0</v>
       </c>
       <c r="MZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA2" t="n">
         <v>9</v>
       </c>
-      <c r="NA2" t="n">
+      <c r="NB2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4459,6 +4467,9 @@
         <v>0</v>
       </c>
       <c r="NA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5557,9 +5568,12 @@
         <v>0</v>
       </c>
       <c r="MZ4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="NA4" t="n">
+        <v>14</v>
+      </c>
+      <c r="NB4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6663,6 +6677,9 @@
       <c r="NA5" t="n">
         <v>0</v>
       </c>
+      <c r="NB5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -7762,6 +7779,9 @@
         <v>0</v>
       </c>
       <c r="NA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8863,6 +8883,9 @@
         <v>0</v>
       </c>
       <c r="NA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9961,9 +9984,12 @@
         <v>0</v>
       </c>
       <c r="MZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA8" t="n">
         <v>10</v>
       </c>
-      <c r="NA8" t="n">
+      <c r="NB8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11062,9 +11088,12 @@
         <v>0</v>
       </c>
       <c r="MZ9" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="NA9" t="n">
+        <v>56</v>
+      </c>
+      <c r="NB9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12166,6 +12195,9 @@
         <v>0</v>
       </c>
       <c r="NA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13267,6 +13299,9 @@
         <v>0</v>
       </c>
       <c r="NA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -14368,6 +14403,9 @@
         <v>0</v>
       </c>
       <c r="NA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15471,6 +15509,9 @@
       <c r="NA13" t="n">
         <v>0</v>
       </c>
+      <c r="NB13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -16570,6 +16611,9 @@
         <v>0</v>
       </c>
       <c r="NA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB14" t="n">
         <v>11</v>
       </c>
     </row>
@@ -17668,9 +17712,12 @@
         <v>0</v>
       </c>
       <c r="MZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA15" t="n">
         <v>4</v>
       </c>
-      <c r="NA15" t="n">
+      <c r="NB15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18769,9 +18816,12 @@
         <v>0</v>
       </c>
       <c r="MZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA16" t="n">
         <v>8</v>
       </c>
-      <c r="NA16" t="n">
+      <c r="NB16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19870,9 +19920,12 @@
         <v>0</v>
       </c>
       <c r="MZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA17" t="n">
         <v>3</v>
       </c>
-      <c r="NA17" t="n">
+      <c r="NB17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20974,6 +21027,9 @@
         <v>0</v>
       </c>
       <c r="NA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB18" t="n">
         <v>12</v>
       </c>
     </row>
@@ -22075,6 +22131,9 @@
         <v>0</v>
       </c>
       <c r="NA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB19" t="n">
         <v>18</v>
       </c>
     </row>
@@ -23176,6 +23235,9 @@
         <v>0</v>
       </c>
       <c r="NA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB20" t="n">
         <v>3</v>
       </c>
     </row>
@@ -24277,6 +24339,9 @@
         <v>0</v>
       </c>
       <c r="NA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB21" t="n">
         <v>6</v>
       </c>
     </row>
@@ -25375,9 +25440,12 @@
         <v>0</v>
       </c>
       <c r="MZ22" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="NA22" t="n">
+        <v>90</v>
+      </c>
+      <c r="NB22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26479,6 +26547,9 @@
         <v>0</v>
       </c>
       <c r="NA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB23" t="n">
         <v>5</v>
       </c>
     </row>
@@ -27582,6 +27653,9 @@
       <c r="NA24" t="n">
         <v>0</v>
       </c>
+      <c r="NB24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -28678,9 +28752,12 @@
         <v>0</v>
       </c>
       <c r="MZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA25" t="n">
         <v>8</v>
       </c>
-      <c r="NA25" t="n">
+      <c r="NB25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29779,9 +29856,12 @@
         <v>0</v>
       </c>
       <c r="MZ26" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="NA26" t="n">
+        <v>82</v>
+      </c>
+      <c r="NB26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30880,9 +30960,12 @@
         <v>0</v>
       </c>
       <c r="MZ27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NA27" t="n">
+        <v>1</v>
+      </c>
+      <c r="NB27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31984,6 +32067,9 @@
         <v>0</v>
       </c>
       <c r="NA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB28" t="n">
         <v>7</v>
       </c>
     </row>
@@ -33082,9 +33168,12 @@
         <v>0</v>
       </c>
       <c r="MZ29" t="n">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="NA29" t="n">
+        <v>113</v>
+      </c>
+      <c r="NB29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34183,9 +34272,12 @@
         <v>0</v>
       </c>
       <c r="MZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA30" t="n">
         <v>7</v>
       </c>
-      <c r="NA30" t="n">
+      <c r="NB30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35287,6 +35379,9 @@
         <v>0</v>
       </c>
       <c r="NA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -36388,6 +36483,9 @@
         <v>0</v>
       </c>
       <c r="NA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -37486,9 +37584,12 @@
         <v>0</v>
       </c>
       <c r="MZ33" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="NA33" t="n">
+        <v>31</v>
+      </c>
+      <c r="NB33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38590,6 +38691,9 @@
         <v>0</v>
       </c>
       <c r="NA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB34" t="n">
         <v>30</v>
       </c>
     </row>
@@ -39688,9 +39792,12 @@
         <v>0</v>
       </c>
       <c r="MZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA35" t="n">
         <v>2</v>
       </c>
-      <c r="NA35" t="n">
+      <c r="NB35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40789,9 +40896,12 @@
         <v>0</v>
       </c>
       <c r="MZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA36" t="n">
         <v>5</v>
       </c>
-      <c r="NA36" t="n">
+      <c r="NB36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41893,6 +42003,9 @@
         <v>0</v>
       </c>
       <c r="NA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB37" t="n">
         <v>46</v>
       </c>
     </row>
@@ -42991,9 +43104,12 @@
         <v>0</v>
       </c>
       <c r="MZ38" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="NA38" t="n">
+        <v>55</v>
+      </c>
+      <c r="NB38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44095,6 +44211,9 @@
         <v>0</v>
       </c>
       <c r="NA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB39" t="n">
         <v>30</v>
       </c>
     </row>
@@ -45196,6 +45315,9 @@
         <v>0</v>
       </c>
       <c r="NA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46294,9 +46416,12 @@
         <v>0</v>
       </c>
       <c r="MZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA41" t="n">
         <v>29</v>
       </c>
-      <c r="NA41" t="n">
+      <c r="NB41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47395,9 +47520,12 @@
         <v>0</v>
       </c>
       <c r="MZ42" t="n">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="NA42" t="n">
+        <v>93</v>
+      </c>
+      <c r="NB42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48496,9 +48624,12 @@
         <v>0</v>
       </c>
       <c r="MZ43" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="NA43" t="n">
+        <v>13</v>
+      </c>
+      <c r="NB43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49597,9 +49728,12 @@
         <v>0</v>
       </c>
       <c r="MZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA44" t="n">
         <v>12</v>
       </c>
-      <c r="NA44" t="n">
+      <c r="NB44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50701,6 +50835,9 @@
         <v>0</v>
       </c>
       <c r="NA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB45" t="n">
         <v>3</v>
       </c>
     </row>
@@ -51802,6 +51939,9 @@
         <v>0</v>
       </c>
       <c r="NA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB46" t="n">
         <v>2</v>
       </c>
     </row>
@@ -52903,6 +53043,9 @@
         <v>0</v>
       </c>
       <c r="NA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB47" t="n">
         <v>16</v>
       </c>
     </row>
@@ -54001,9 +54144,12 @@
         <v>0</v>
       </c>
       <c r="MZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA48" t="n">
         <v>11</v>
       </c>
-      <c r="NA48" t="n">
+      <c r="NB48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55105,6 +55251,9 @@
         <v>0</v>
       </c>
       <c r="NA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB49" t="n">
         <v>23</v>
       </c>
     </row>
@@ -56206,6 +56355,9 @@
         <v>0</v>
       </c>
       <c r="NA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB50" t="n">
         <v>6</v>
       </c>
     </row>
@@ -57307,6 +57459,9 @@
         <v>0</v>
       </c>
       <c r="NA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB51" t="n">
         <v>7</v>
       </c>
     </row>
@@ -58405,10 +58560,13 @@
         <v>0</v>
       </c>
       <c r="MZ52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NA52" t="n">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="NB52" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -59506,10 +59664,13 @@
         <v>0</v>
       </c>
       <c r="MZ53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NA53" t="n">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="NB53" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -22140,7 +22140,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>GoogleCloudFilestore</t>
+          <t>GoogleCloudFirestore</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
